--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20737,6 +20737,418 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>351.0129411764706</v>
+      </c>
+      <c r="C332" t="n">
+        <v>339.26</v>
+      </c>
+      <c r="D332" t="n">
+        <v>332.5521212121212</v>
+      </c>
+      <c r="E332" t="n">
+        <v>321.2522222222222</v>
+      </c>
+      <c r="F332" t="n">
+        <v>331.9933333333333</v>
+      </c>
+      <c r="G332" t="n">
+        <v>328.4068292682927</v>
+      </c>
+      <c r="H332" t="n">
+        <v>319.6086956521739</v>
+      </c>
+      <c r="I332" t="n">
+        <v>316.9429411764706</v>
+      </c>
+      <c r="J332" t="n">
+        <v>329.3328571428572</v>
+      </c>
+      <c r="K332" t="n">
+        <v>325.9772131147541</v>
+      </c>
+      <c r="L332" t="n">
+        <v>329.1981818181818</v>
+      </c>
+      <c r="M332" t="n">
+        <v>331.7793103448275</v>
+      </c>
+      <c r="N332" t="n">
+        <v>329.0911111111111</v>
+      </c>
+      <c r="O332" t="n">
+        <v>332.1229411764706</v>
+      </c>
+      <c r="P332" t="n">
+        <v>340.1686206896552</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>340.1333333333333</v>
+      </c>
+      <c r="R332" t="n">
+        <v>338.7652631578948</v>
+      </c>
+      <c r="S332" t="n">
+        <v>347.3566666666667</v>
+      </c>
+      <c r="T332" t="n">
+        <v>339.7533333333333</v>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>370.1129411764706</v>
+      </c>
+      <c r="C333" t="n">
+        <v>373.29</v>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="n">
+        <v>334.78</v>
+      </c>
+      <c r="F333" t="n">
+        <v>352.61</v>
+      </c>
+      <c r="G333" t="n">
+        <v>359.1521951219512</v>
+      </c>
+      <c r="H333" t="n">
+        <v>355.5969565217391</v>
+      </c>
+      <c r="I333" t="n">
+        <v>351.7529411764706</v>
+      </c>
+      <c r="J333" t="n">
+        <v>336.7628571428572</v>
+      </c>
+      <c r="K333" t="n">
+        <v>359.4922950819673</v>
+      </c>
+      <c r="L333" t="n">
+        <v>346.11</v>
+      </c>
+      <c r="M333" t="n">
+        <v>344.2724137931035</v>
+      </c>
+      <c r="N333" t="n">
+        <v>342.64</v>
+      </c>
+      <c r="O333" t="n">
+        <v>318.7629411764706</v>
+      </c>
+      <c r="P333" t="n">
+        <v>329.1748275862069</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>345.41</v>
+      </c>
+      <c r="R333" t="n">
+        <v>355.898947368421</v>
+      </c>
+      <c r="S333" t="n">
+        <v>345.64</v>
+      </c>
+      <c r="T333" t="n">
+        <v>354.01</v>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>351.8670588235294</v>
+      </c>
+      <c r="C334" t="n">
+        <v>336.59</v>
+      </c>
+      <c r="D334" t="n">
+        <v>328.4509090909091</v>
+      </c>
+      <c r="E334" t="n">
+        <v>337.8766666666667</v>
+      </c>
+      <c r="F334" t="n">
+        <v>342.29</v>
+      </c>
+      <c r="G334" t="n">
+        <v>338.1012195121951</v>
+      </c>
+      <c r="H334" t="n">
+        <v>315.2152173913043</v>
+      </c>
+      <c r="I334" t="n">
+        <v>318.6670588235294</v>
+      </c>
+      <c r="J334" t="n">
+        <v>326.2414285714286</v>
+      </c>
+      <c r="K334" t="n">
+        <v>321.9840983606558</v>
+      </c>
+      <c r="L334" t="n">
+        <v>322.4563636363636</v>
+      </c>
+      <c r="M334" t="n">
+        <v>324.7748275862069</v>
+      </c>
+      <c r="N334" t="n">
+        <v>326.6933333333333</v>
+      </c>
+      <c r="O334" t="n">
+        <v>335.2470588235294</v>
+      </c>
+      <c r="P334" t="n">
+        <v>346.5896551724138</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>338.2</v>
+      </c>
+      <c r="R334" t="n">
+        <v>329.7894736842105</v>
+      </c>
+      <c r="S334" t="n">
+        <v>335.45</v>
+      </c>
+      <c r="T334" t="n">
+        <v>333.15</v>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>341.8658823529412</v>
+      </c>
+      <c r="C335" t="n">
+        <v>334.26</v>
+      </c>
+      <c r="D335" t="n">
+        <v>331.1224242424242</v>
+      </c>
+      <c r="E335" t="n">
+        <v>331.2311111111111</v>
+      </c>
+      <c r="F335" t="n">
+        <v>339.3066666666667</v>
+      </c>
+      <c r="G335" t="n">
+        <v>349.5868292682927</v>
+      </c>
+      <c r="H335" t="n">
+        <v>344.6130434782609</v>
+      </c>
+      <c r="I335" t="n">
+        <v>343.6958823529412</v>
+      </c>
+      <c r="J335" t="n">
+        <v>328.3771428571428</v>
+      </c>
+      <c r="K335" t="n">
+        <v>342.8116393442623</v>
+      </c>
+      <c r="L335" t="n">
+        <v>322.1736363636364</v>
+      </c>
+      <c r="M335" t="n">
+        <v>330.6341379310345</v>
+      </c>
+      <c r="N335" t="n">
+        <v>336.4655555555556</v>
+      </c>
+      <c r="O335" t="n">
+        <v>324.0358823529411</v>
+      </c>
+      <c r="P335" t="n">
+        <v>329.618275862069</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>337.0066666666667</v>
+      </c>
+      <c r="R335" t="n">
+        <v>346.1536842105263</v>
+      </c>
+      <c r="S335" t="n">
+        <v>345.7233333333334</v>
+      </c>
+      <c r="T335" t="n">
+        <v>353.0766666666667</v>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>349.6811764705882</v>
+      </c>
+      <c r="C336" t="n">
+        <v>335.45</v>
+      </c>
+      <c r="D336" t="n">
+        <v>325.6775757575758</v>
+      </c>
+      <c r="E336" t="n">
+        <v>336.1988888888889</v>
+      </c>
+      <c r="F336" t="n">
+        <v>335.8233333333333</v>
+      </c>
+      <c r="G336" t="n">
+        <v>343.6909756097561</v>
+      </c>
+      <c r="H336" t="n">
+        <v>312.67</v>
+      </c>
+      <c r="I336" t="n">
+        <v>326.1411764705882</v>
+      </c>
+      <c r="J336" t="n">
+        <v>326.83</v>
+      </c>
+      <c r="K336" t="n">
+        <v>321.5360655737705</v>
+      </c>
+      <c r="L336" t="n">
+        <v>321.1963636363636</v>
+      </c>
+      <c r="M336" t="n">
+        <v>324.5634482758621</v>
+      </c>
+      <c r="N336" t="n">
+        <v>327.2844444444444</v>
+      </c>
+      <c r="O336" t="n">
+        <v>330.7111764705882</v>
+      </c>
+      <c r="P336" t="n">
+        <v>342.3568965517241</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>340.5333333333333</v>
+      </c>
+      <c r="R336" t="n">
+        <v>334.8273684210527</v>
+      </c>
+      <c r="S336" t="n">
+        <v>336.6866666666667</v>
+      </c>
+      <c r="T336" t="n">
+        <v>332.8933333333333</v>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>345.3970588235294</v>
+      </c>
+      <c r="C337" t="n">
+        <v>331.29</v>
+      </c>
+      <c r="D337" t="n">
+        <v>327.1175757575758</v>
+      </c>
+      <c r="E337" t="n">
+        <v>333.1888888888889</v>
+      </c>
+      <c r="F337" t="n">
+        <v>331.9433333333333</v>
+      </c>
+      <c r="G337" t="n">
+        <v>326.9453658536585</v>
+      </c>
+      <c r="H337" t="n">
+        <v>333.8839130434782</v>
+      </c>
+      <c r="I337" t="n">
+        <v>326.5270588235294</v>
+      </c>
+      <c r="J337" t="n">
+        <v>327.8357142857143</v>
+      </c>
+      <c r="K337" t="n">
+        <v>322.2606557377049</v>
+      </c>
+      <c r="L337" t="n">
+        <v>320.5463636363637</v>
+      </c>
+      <c r="M337" t="n">
+        <v>328.428275862069</v>
+      </c>
+      <c r="N337" t="n">
+        <v>334.3744444444445</v>
+      </c>
+      <c r="O337" t="n">
+        <v>326.8870588235294</v>
+      </c>
+      <c r="P337" t="n">
+        <v>331.5365517241379</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>338.5033333333333</v>
+      </c>
+      <c r="R337" t="n">
+        <v>334.1252631578947</v>
+      </c>
+      <c r="S337" t="n">
+        <v>339.5966666666666</v>
+      </c>
+      <c r="T337" t="n">
+        <v>344.5733333333333</v>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20748,7 +21160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24186,6 +24598,66 @@
       </c>
       <c r="B343" t="n">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -24354,28 +24826,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2421448729130876</v>
+        <v>-0.2003675359250222</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01953673913021958</v>
+        <v>0.01373962782928417</v>
       </c>
       <c r="M2" t="n">
-        <v>9.200356871999032</v>
+        <v>9.173939764352012</v>
       </c>
       <c r="N2" t="n">
-        <v>146.7118344007502</v>
+        <v>147.1152729293412</v>
       </c>
       <c r="O2" t="n">
-        <v>12.11246607428686</v>
+        <v>12.12910849689049</v>
       </c>
       <c r="P2" t="n">
-        <v>348.2000447622809</v>
+        <v>347.7838006602518</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24425,28 +24897,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.3255578173172152</v>
+        <v>-0.2670971049843189</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04099248940789624</v>
+        <v>0.02750044294936294</v>
       </c>
       <c r="M3" t="n">
-        <v>8.433325903081819</v>
+        <v>8.491673226790573</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3822702199136</v>
+        <v>129.7911551726053</v>
       </c>
       <c r="O3" t="n">
-        <v>11.15267995684955</v>
+        <v>11.39259211824093</v>
       </c>
       <c r="P3" t="n">
-        <v>336.7317042298034</v>
+        <v>336.1575434712066</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24502,28 +24974,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05975138791596418</v>
+        <v>-0.03253077320264975</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001504093871184331</v>
+        <v>0.0004609612290878973</v>
       </c>
       <c r="M4" t="n">
-        <v>8.326567694442387</v>
+        <v>8.300239027967962</v>
       </c>
       <c r="N4" t="n">
-        <v>118.6159282424266</v>
+        <v>117.3376921969984</v>
       </c>
       <c r="O4" t="n">
-        <v>10.89109398740212</v>
+        <v>10.832252406448</v>
       </c>
       <c r="P4" t="n">
-        <v>323.4529926179128</v>
+        <v>323.183862257168</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24579,28 +25051,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1137966659572955</v>
+        <v>-0.08006842184541089</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006104566371572528</v>
+        <v>0.003134402842778994</v>
       </c>
       <c r="M5" t="n">
-        <v>7.702295163099333</v>
+        <v>7.704367524088711</v>
       </c>
       <c r="N5" t="n">
-        <v>105.3423887628149</v>
+        <v>104.645208629586</v>
       </c>
       <c r="O5" t="n">
-        <v>10.26364402942809</v>
+        <v>10.22962407078511</v>
       </c>
       <c r="P5" t="n">
-        <v>328.1877618920952</v>
+        <v>327.8547572169228</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24656,28 +25128,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3628952555658017</v>
+        <v>-0.2901020085303654</v>
       </c>
       <c r="J6" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03448261157445887</v>
+        <v>0.02259325483416597</v>
       </c>
       <c r="M6" t="n">
-        <v>10.29358231330056</v>
+        <v>10.38154491502265</v>
       </c>
       <c r="N6" t="n">
-        <v>187.8349530307392</v>
+        <v>190.2931494054985</v>
       </c>
       <c r="O6" t="n">
-        <v>13.70528923557395</v>
+        <v>13.79467830018151</v>
       </c>
       <c r="P6" t="n">
-        <v>331.8623634652729</v>
+        <v>331.1561824220354</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24727,28 +25199,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.222109546757203</v>
+        <v>-0.1445262890286214</v>
       </c>
       <c r="J7" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01353394374536643</v>
+        <v>0.005747802556905435</v>
       </c>
       <c r="M7" t="n">
-        <v>9.391337738188865</v>
+        <v>9.508971590205785</v>
       </c>
       <c r="N7" t="n">
-        <v>181.6319695093858</v>
+        <v>186.9720410946203</v>
       </c>
       <c r="O7" t="n">
-        <v>13.47709054319165</v>
+        <v>13.67377201413788</v>
       </c>
       <c r="P7" t="n">
-        <v>328.8697022973531</v>
+        <v>328.1061089786963</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24798,28 +25270,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.2044762845297993</v>
+        <v>-0.1249671501654909</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K8" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008890325758848183</v>
+        <v>0.003319615413194588</v>
       </c>
       <c r="M8" t="n">
-        <v>11.37015972594854</v>
+        <v>11.48589169575559</v>
       </c>
       <c r="N8" t="n">
-        <v>230.4179570697332</v>
+        <v>237.4807591403299</v>
       </c>
       <c r="O8" t="n">
-        <v>15.17952427020469</v>
+        <v>15.41041073885865</v>
       </c>
       <c r="P8" t="n">
-        <v>317.8789010504237</v>
+        <v>317.0806535881361</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24869,28 +25341,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.36680617806698</v>
+        <v>-0.2818683042646909</v>
       </c>
       <c r="J9" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K9" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03261672408327843</v>
+        <v>0.01930896961764517</v>
       </c>
       <c r="M9" t="n">
-        <v>10.15091754592773</v>
+        <v>10.31607097226742</v>
       </c>
       <c r="N9" t="n">
-        <v>194.4277949659345</v>
+        <v>201.3512316737446</v>
       </c>
       <c r="O9" t="n">
-        <v>13.94373676479639</v>
+        <v>14.18982845822121</v>
       </c>
       <c r="P9" t="n">
-        <v>320.6613381416162</v>
+        <v>319.801382978751</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24940,28 +25412,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.09558999507056251</v>
+        <v>-0.03825251363485131</v>
       </c>
       <c r="J10" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K10" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001912401794320173</v>
+        <v>0.000315810594673227</v>
       </c>
       <c r="M10" t="n">
-        <v>12.04428559021216</v>
+        <v>11.99668507337814</v>
       </c>
       <c r="N10" t="n">
-        <v>239.1026174656387</v>
+        <v>237.8644373211584</v>
       </c>
       <c r="O10" t="n">
-        <v>15.46294336359151</v>
+        <v>15.42285438306277</v>
       </c>
       <c r="P10" t="n">
-        <v>318.1857076596538</v>
+        <v>317.6209141807809</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -25011,28 +25483,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.24865950512248</v>
+        <v>-0.1871775341760481</v>
       </c>
       <c r="J11" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K11" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02249997122993153</v>
+        <v>0.01264972819010113</v>
       </c>
       <c r="M11" t="n">
-        <v>8.28485807601464</v>
+        <v>8.353037360015653</v>
       </c>
       <c r="N11" t="n">
-        <v>132.4334985754444</v>
+        <v>138.0371885807173</v>
       </c>
       <c r="O11" t="n">
-        <v>11.50797543338725</v>
+        <v>11.7489228689577</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6052899761437</v>
+        <v>323.9874952788516</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -25088,28 +25560,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1306768739945812</v>
+        <v>-0.08332565078135969</v>
       </c>
       <c r="J12" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K12" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006597890734012735</v>
+        <v>0.002717294276232463</v>
       </c>
       <c r="M12" t="n">
-        <v>8.633307946015286</v>
+        <v>8.654704828602492</v>
       </c>
       <c r="N12" t="n">
-        <v>129.3386452794769</v>
+        <v>130.9433628670232</v>
       </c>
       <c r="O12" t="n">
-        <v>11.37271494760494</v>
+        <v>11.44304867013259</v>
       </c>
       <c r="P12" t="n">
-        <v>318.797032588497</v>
+        <v>318.3240118894734</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -25165,28 +25637,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1299975460327225</v>
+        <v>-0.09945254525597541</v>
       </c>
       <c r="J13" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K13" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01044512410282272</v>
+        <v>0.006254200928345055</v>
       </c>
       <c r="M13" t="n">
-        <v>6.685744282919085</v>
+        <v>6.692722331810954</v>
       </c>
       <c r="N13" t="n">
-        <v>81.03433627953355</v>
+        <v>81.32847254978543</v>
       </c>
       <c r="O13" t="n">
-        <v>9.001907368970953</v>
+        <v>9.018230012024834</v>
       </c>
       <c r="P13" t="n">
-        <v>326.6267420012469</v>
+        <v>326.3251617626875</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -25242,28 +25714,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03928456214106028</v>
+        <v>-0.008499422523723115</v>
       </c>
       <c r="J14" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K14" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001093169253710058</v>
+        <v>5.225747504888911e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>5.958918133525026</v>
+        <v>5.973211234615077</v>
       </c>
       <c r="N14" t="n">
-        <v>71.06023661244991</v>
+        <v>71.29798176571953</v>
       </c>
       <c r="O14" t="n">
-        <v>8.429723400708347</v>
+        <v>8.443813224232256</v>
       </c>
       <c r="P14" t="n">
-        <v>326.4467626858369</v>
+        <v>326.1434755288316</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -25319,28 +25791,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04968211812484093</v>
+        <v>0.05747194131093469</v>
       </c>
       <c r="J15" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K15" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001326413857265396</v>
+        <v>0.001844738170670213</v>
       </c>
       <c r="M15" t="n">
-        <v>7.577448526641231</v>
+        <v>7.512993562002216</v>
       </c>
       <c r="N15" t="n">
-        <v>94.39120354991329</v>
+        <v>93.023271632879</v>
       </c>
       <c r="O15" t="n">
-        <v>9.715513550498157</v>
+        <v>9.644857263478761</v>
       </c>
       <c r="P15" t="n">
-        <v>324.9290819010337</v>
+        <v>324.8530545206002</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -25390,28 +25862,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.01685479203252278</v>
+        <v>0.01849309334165604</v>
       </c>
       <c r="J16" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K16" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001118167072927667</v>
+        <v>0.0001399798833998656</v>
       </c>
       <c r="M16" t="n">
-        <v>8.590548809547009</v>
+        <v>8.542768387878212</v>
       </c>
       <c r="N16" t="n">
-        <v>126.0140390198401</v>
+        <v>124.2683037174498</v>
       </c>
       <c r="O16" t="n">
-        <v>11.2255974905499</v>
+        <v>11.14756940850559</v>
       </c>
       <c r="P16" t="n">
-        <v>335.7712436066133</v>
+        <v>335.7552163838535</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -25467,28 +25939,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06438894298417765</v>
+        <v>0.09189101099658697</v>
       </c>
       <c r="J17" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K17" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001107814445199029</v>
+        <v>0.002349238445894186</v>
       </c>
       <c r="M17" t="n">
-        <v>10.43794932650806</v>
+        <v>10.31150919066474</v>
       </c>
       <c r="N17" t="n">
-        <v>187.3897062736148</v>
+        <v>184.1533173026147</v>
       </c>
       <c r="O17" t="n">
-        <v>13.68903598773905</v>
+        <v>13.57031014025157</v>
       </c>
       <c r="P17" t="n">
-        <v>332.1331595643208</v>
+        <v>331.8608241374935</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -25544,28 +26016,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1092632806857928</v>
+        <v>0.1573147950396637</v>
       </c>
       <c r="J18" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K18" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003262032132159365</v>
+        <v>0.006912462374496164</v>
       </c>
       <c r="M18" t="n">
-        <v>10.15670429033516</v>
+        <v>10.1461948171216</v>
       </c>
       <c r="N18" t="n">
-        <v>185.1203532684935</v>
+        <v>185.097292592932</v>
       </c>
       <c r="O18" t="n">
-        <v>13.6058940635481</v>
+        <v>13.60504658547452</v>
       </c>
       <c r="P18" t="n">
-        <v>326.4260360947006</v>
+        <v>325.9584476876489</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -25621,28 +26093,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1472798002736621</v>
+        <v>0.202174867931652</v>
       </c>
       <c r="J19" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K19" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005080677695642133</v>
+        <v>0.009834133009391621</v>
       </c>
       <c r="M19" t="n">
-        <v>11.2623624870254</v>
+        <v>11.19839052770091</v>
       </c>
       <c r="N19" t="n">
-        <v>216.0275873944659</v>
+        <v>214.7219952078705</v>
       </c>
       <c r="O19" t="n">
-        <v>14.69787696895255</v>
+        <v>14.65339534742274</v>
       </c>
       <c r="P19" t="n">
-        <v>325.9062087507244</v>
+        <v>325.3715072674786</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -25698,28 +26170,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0008790084650127207</v>
+        <v>0.06331743757781741</v>
       </c>
       <c r="J20" t="n">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K20" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L20" t="n">
-        <v>1.779645284472053e-07</v>
+        <v>0.0009429488018448673</v>
       </c>
       <c r="M20" t="n">
-        <v>11.14279697198663</v>
+        <v>11.10239203213082</v>
       </c>
       <c r="N20" t="n">
-        <v>213.3041605957236</v>
+        <v>213.8850070985991</v>
       </c>
       <c r="O20" t="n">
-        <v>14.60493617225777</v>
+        <v>14.62480793373366</v>
       </c>
       <c r="P20" t="n">
-        <v>329.5572220643379</v>
+        <v>328.9258809044507</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -25756,7 +26228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U331"/>
+  <dimension ref="A1:U337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56029,6 +56501,644 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-38.72480078346879,174.60864761273706</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-38.72409405024106,174.60873412654814</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-38.723390279247276,174.60876273828666</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-38.72268379890488,174.60884404810633</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-38.72199028328148,174.6086724077155</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-38.72128832876758,174.60866519512513</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-38.72058862308434,174.60871807790087</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-38.719916483769055,174.60872932224865</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>-38.71923145054013,174.60868087750347</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>-38.718537421830646,174.60881500880782</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>-38.71783776370053,174.60887384877282</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>-38.71713864581458,174.60894001442279</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>-38.716444026076516,174.609066503963</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>-38.71574457876984,174.60912749942855</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>-38.71504150312146,174.609131561834</t>
+        </is>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>-38.71434603811655,174.60923645823064</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>-38.71365116426014,174.60935672248675</t>
+        </is>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>-38.71294687983285,174.609363089719</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>-38.712257879783316,174.60955466035975</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:30+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-38.72481202375734,174.60842840809357</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-38.72411407678056,174.60834357885327</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-38.72269176025042,174.6086887987117</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-38.722002416134586,174.60843580604225</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-38.721306422128514,174.6083123575532</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-38.720604552155045,174.6083046921667</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-38.719906720009774,174.6083291853013</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>-38.71922509824195,174.60859581549295</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>-38.71850876779762,174.60843131674332</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>-38.71782330495134,174.60868023838043</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>-38.717127964890345,174.60879699188334</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>-38.716432442603185,174.60891139616328</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>-38.71575603940267,174.60928043863981</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>-38.715051424887484,174.60925735103916</t>
+        </is>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>-38.71434105581366,174.60917611300772</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>-38.71363498638843,174.60916077949025</t>
+        </is>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>-38.71294850072446,174.60938272154823</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>-38.712244418576496,174.60939162245674</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:37+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-38.724801286123025,174.60863781030145</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-38.7240924789001,174.60876476898028</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-38.723387865599626,174.60880980565585</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-38.72269358266671,174.60865326030233</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-38.72199634290189,174.60855424078034</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-38.721294033940374,174.60855394114242</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-38.72058667834962,174.60876854437558</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-38.719916000208435,174.6087095037131</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>-38.719234093546824,174.60871626958394</t>
+        </is>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>-38.71854083569705,174.60886072336203</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>-38.71784352752419,174.6089510306799</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>-38.717144634189516,174.60902020259346</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>-38.71644607600867,174.60909395374864</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>-38.71574189877335,174.60909173595488</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>-38.71503570815211,174.6090580934084</t>
+        </is>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>-38.71434786358923,174.6092585682952</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>-38.7136596391981,174.60945937078995</t>
+        </is>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>-38.71295812214289,174.60949925457734</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>-38.712264114601915,174.60963017547857</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:25+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-38.724795400309006,174.6087525906013</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-38.72409110764845,174.60879150937853</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-38.723389437843366,174.60877914613752</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-38.72268967168405,174.60872952697582</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-38.72199458721318,174.6085884782082</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-38.72130079311372,174.60842213088253</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-38.72059969062635,174.6084308609157</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-38.71990898003368,174.60842180026057</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>-38.71923226762607,174.6086918189551</t>
+        </is>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>-38.71852302923869,174.60862228253424</t>
+        </is>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>-38.71784376923681,174.6089542674079</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>-38.71713962486592,174.60895312449512</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>-38.71643772140212,174.60898208125252</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>-38.71575151613009,174.60922007639942</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>-38.715051024683376,174.60925227717502</t>
+        </is>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>-38.7143489903444,174.60927221554243</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>-38.713644188046956,174.60927222755242</t>
+        </is>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>-38.71294842204048,174.6093817685468</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>-38.712245299840895,174.60940229596758</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:32+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-38.724799999714264,174.6086628969752</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-38.724091807988025,174.60877785226543</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-38.72338623342524,174.60884163368402</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-38.72269259528068,174.60867251505616</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-38.72199253726232,174.60862845374987</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-38.721297323477785,174.60848979242272</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-38.72058555172145,174.6087977804693</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-38.719913903915234,174.60862358958568</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>-38.719233590350456,174.6087095313503</t>
+        </is>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>-38.71854121873629,174.60886585259604</t>
+        </is>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>-38.71784460473797,174.60896545545498</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>-38.71714481490415,174.6090226224897</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>-38.716445570650656,174.60908718670217</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>-38.71574578983599,174.60914366066763</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>-38.71503952821257,174.6091065239386</t>
+        </is>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>-38.71434566043202,174.60923188373465</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>-38.71365488243043,174.60940175676376</t>
+        </is>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>-38.71295695448596,174.60948511203293</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>-38.71226435694369,174.60963311069546</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:29+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-38.724797478462136,174.60871206442226</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-38.72408935973514,174.6088255947771</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-38.723387080901475,174.60882510759268</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-38.722690823863,174.608707058848</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-38.72199025385603,174.60867298152704</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-38.72128746868357,174.60868196705235</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-38.72059494173442,174.60855410303603</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>-38.71991379568368,174.60861915391226</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>-38.71923273051885,174.6086980174756</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>-38.71854059925817,174.6088575572377</t>
+        </is>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>-38.717845160442785,174.60897289680733</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>-38.71714151073693,174.60897837747174</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>-38.7164395091735,174.6090060203112</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>-38.71574907030019,174.60918743742633</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>-38.71504929347134,174.60923032857045</t>
+        </is>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>-38.714347577179126,174.60925509930223</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>-38.71365554535818,174.60940978613144</t>
+        </is>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>-38.712954206865994,174.6094518332171</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>-38.7122533287439,174.60949953928582</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -24671,7 +24671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24762,35 +24762,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24849,27 +24854,28 @@
       <c r="P2" t="n">
         <v>347.7838006602518</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.61267606216686 -38.724594140528076, 174.6022048599241 -38.72513097965814)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.6126760621669</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-38.72459414052808</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.6022048599241</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-38.72513097965814</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.6074404610455</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-38.72486256009311</v>
       </c>
     </row>
@@ -24920,27 +24926,28 @@
       <c r="P3" t="n">
         <v>336.1575434712066</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.612627653445 -38.723894325767525, 174.6021565178807 -38.72443116213632)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.612627653445</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-38.72389432576752</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.6021565178807</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-38.72443116213632</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.6073920856629</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-38.72416274395192</v>
       </c>
     </row>
@@ -24997,27 +25004,28 @@
       <c r="P4" t="n">
         <v>323.183862257168</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.61257924472372 -38.723194504153035, 174.6021081758362 -38.72373133776063)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.6125792447237</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-38.72319450415304</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.6021081758362</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-38.72373133776063</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.60734371028</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-38.72346292095683</v>
       </c>
     </row>
@@ -25074,27 +25082,28 @@
       <c r="P5" t="n">
         <v>327.8547572169228</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.61253083600297 -38.72249467568463, 174.60205983379058 -38.723031506531214)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.612530836003</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-38.72249467568463</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.6020598337906</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-38.72303150653121</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.6072953348968</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-38.72276309110792</v>
       </c>
     </row>
@@ -25151,27 +25160,28 @@
       <c r="P6" t="n">
         <v>331.1561824220354</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.6124824272828 -38.72179484036243, 174.60201149174384 -38.722331668447936)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.6124824272828</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-38.72179484036243</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.6020114917438</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-38.72233166844794</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.6072469595133</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-38.72206325440519</v>
       </c>
     </row>
@@ -25222,27 +25232,28 @@
       <c r="P7" t="n">
         <v>328.1061089786963</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.61243401856316 -38.721094998186516, 174.60196314969596 -38.72163182351082)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.6124340185632</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-38.72109499818652</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.601963149696</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-38.72163182351082</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.6071985841295</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-38.72136341084867</v>
       </c>
     </row>
@@ -25293,27 +25304,28 @@
       <c r="P8" t="n">
         <v>317.0806535881361</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.61238931128102 -38.7204470943701, 174.6019087511123 -38.720850821170906)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.612389311281</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-38.7204470943701</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.6019087511123</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-38.72085082117091</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.6071490311967</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-38.72064895777051</v>
       </c>
     </row>
@@ -25364,27 +25376,28 @@
       <c r="P9" t="n">
         <v>319.801382978751</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.61237254771765 -38.720005319071966, 174.60188448629947 -38.719749273360875)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.6123725477177</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-38.72000531907197</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.6018844862995</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-38.71974927336088</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.6071285170086</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-38.71987729621642</v>
       </c>
     </row>
@@ -25435,27 +25448,28 @@
       <c r="P10" t="n">
         <v>317.6209141807809</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.61245124242285 -38.71951295201378, 174.6020056598149 -38.71873276355311)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.6124512424228</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-38.71951295201378</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.6020056598149</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-38.71873276355311</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.6072284511189</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-38.71912285778345</v>
       </c>
     </row>
@@ -25506,27 +25520,28 @@
       <c r="P11" t="n">
         <v>323.9874952788516</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.61254692059083 -38.71881605303708, 174.60210140447577 -38.718035865818564)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.6125469205908</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-38.71881605303708</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.6021014044758</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-38.71803586581856</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.6073241625333</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-38.71842595942782</v>
       </c>
     </row>
@@ -25583,27 +25598,28 @@
       <c r="P12" t="n">
         <v>318.3240118894734</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.61264259875932 -38.71811914726498, 174.60219714913552 -38.71733896128828)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.6126425987593</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-38.71811914726498</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.6021971491355</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-38.71733896128828</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.6074198739474</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-38.71772905427663</v>
       </c>
     </row>
@@ -25660,27 +25676,28 @@
       <c r="P13" t="n">
         <v>326.3251617626875</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.61273827692835 -38.71742223469748, 174.6022928937942 -38.716642049962275)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.6127382769284</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-38.71742223469748</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.6022928937942</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-38.71664204996227</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.6075155853613</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-38.71703214232988</v>
       </c>
     </row>
@@ -25737,27 +25754,28 @@
       <c r="P14" t="n">
         <v>326.1434755288316</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.61283395509793 -38.716725315334486, 174.60238863845183 -38.71594513184089)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.6128339550979</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-38.71672531533449</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.6023886384518</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-38.71594513184089</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.6076112967749</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-38.71633522358769</v>
       </c>
     </row>
@@ -25814,27 +25832,28 @@
       <c r="P15" t="n">
         <v>324.8530545206002</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.61292950442322 -38.716029424715344, 174.60248457877034 -38.71524658852332)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.6129295044232</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-38.71602942471534</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.6024845787703</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-38.71524658852332</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.6077070415968</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-38.71563800661933</v>
       </c>
     </row>
@@ -25885,27 +25904,28 @@
       <c r="P16" t="n">
         <v>335.7552163838535</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.61302373019373 -38.715348438138044, 174.60258399174825 -38.71452486484442)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.6130237301937</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-38.71534843813804</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.6025839917482</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-38.71452486484442</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.607803860971</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-38.71493665149123</v>
       </c>
     </row>
@@ -25962,27 +25982,28 @@
       <c r="P17" t="n">
         <v>331.8608241374935</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.6131263198414 -38.714667130665845, 174.60269166962055 -38.713805492384445)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.6131263198414</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-38.71466713066584</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.6026916696206</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-38.71380549238445</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.607908994731</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-38.71423631152514</v>
       </c>
     </row>
@@ -26039,27 +26060,28 @@
       <c r="P18" t="n">
         <v>325.9584476876489</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.61323090102192 -38.71397096344669, 174.60279631704333 -38.71310932665618)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.6132309010219</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-38.71397096344669</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.6027963170433</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-38.71310932665618</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.6080136090326</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-38.71354014505144</v>
       </c>
     </row>
@@ -26116,27 +26138,28 @@
       <c r="P19" t="n">
         <v>325.3715072674786</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (174.613335482203 -38.71327478944746, 174.60290096446505 -38.71241315414767)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>174.613335482203</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-38.71327478944746</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>174.6029009644651</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-38.71241315414767</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>174.608118223334</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-38.71284397179757</v>
       </c>
     </row>
@@ -26193,27 +26216,28 @@
       <c r="P20" t="n">
         <v>328.9258809044507</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (174.61344006338464 -38.712578608668295, 174.60300561188566 -38.71171697485901)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>174.6134400633846</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-38.7125786086683</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>174.6030056118857</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-38.71171697485901</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>174.6082228376351</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-38.71214779176366</v>
       </c>
     </row>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U337"/>
+  <dimension ref="A1:U343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21149,6 +21149,414 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>355.1388235294117</v>
+      </c>
+      <c r="C338" t="n">
+        <v>334.77</v>
+      </c>
+      <c r="D338" t="n">
+        <v>337.0651515151515</v>
+      </c>
+      <c r="E338" t="n">
+        <v>340.8111111111111</v>
+      </c>
+      <c r="F338" t="n">
+        <v>336.3366666666667</v>
+      </c>
+      <c r="G338" t="n">
+        <v>340.7492682926829</v>
+      </c>
+      <c r="H338" t="n">
+        <v>339.3265217391304</v>
+      </c>
+      <c r="I338" t="n">
+        <v>340.4488235294117</v>
+      </c>
+      <c r="J338" t="n">
+        <v>340.1128571428572</v>
+      </c>
+      <c r="K338" t="n">
+        <v>332.2131147540983</v>
+      </c>
+      <c r="L338" t="n">
+        <v>327.4127272727272</v>
+      </c>
+      <c r="M338" t="n">
+        <v>335.3482758620689</v>
+      </c>
+      <c r="N338" t="n">
+        <v>330.7255555555556</v>
+      </c>
+      <c r="O338" t="n">
+        <v>332.7388235294118</v>
+      </c>
+      <c r="P338" t="n">
+        <v>334.5065517241379</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>345.6266666666667</v>
+      </c>
+      <c r="R338" t="n">
+        <v>322.7578947368421</v>
+      </c>
+      <c r="S338" t="n">
+        <v>336.7333333333333</v>
+      </c>
+      <c r="T338" t="n">
+        <v>338.3466666666667</v>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>342.5964705882353</v>
+      </c>
+      <c r="C339" t="n">
+        <v>332.41</v>
+      </c>
+      <c r="D339" t="n">
+        <v>325.1875757575758</v>
+      </c>
+      <c r="E339" t="n">
+        <v>334.9755555555556</v>
+      </c>
+      <c r="F339" t="n">
+        <v>335.2333333333333</v>
+      </c>
+      <c r="G339" t="n">
+        <v>330.9124390243902</v>
+      </c>
+      <c r="H339" t="n">
+        <v>307.171304347826</v>
+      </c>
+      <c r="I339" t="n">
+        <v>316.2364705882353</v>
+      </c>
+      <c r="J339" t="n">
+        <v>325.1685714285715</v>
+      </c>
+      <c r="K339" t="n">
+        <v>315.544262295082</v>
+      </c>
+      <c r="L339" t="n">
+        <v>315.5963636363636</v>
+      </c>
+      <c r="M339" t="n">
+        <v>322.4817241379311</v>
+      </c>
+      <c r="N339" t="n">
+        <v>325.1177777777777</v>
+      </c>
+      <c r="O339" t="n">
+        <v>332.8464705882353</v>
+      </c>
+      <c r="P339" t="n">
+        <v>340.9634482758621</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>340.7833333333333</v>
+      </c>
+      <c r="R339" t="n">
+        <v>328.64</v>
+      </c>
+      <c r="S339" t="n">
+        <v>328.6566666666667</v>
+      </c>
+      <c r="T339" t="n">
+        <v>326.0433333333333</v>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>341.3717647058824</v>
+      </c>
+      <c r="C340" t="n">
+        <v>328.26</v>
+      </c>
+      <c r="D340" t="n">
+        <v>322.3672727272727</v>
+      </c>
+      <c r="E340" t="n">
+        <v>322.9933333333333</v>
+      </c>
+      <c r="F340" t="n">
+        <v>327.12</v>
+      </c>
+      <c r="G340" t="n">
+        <v>332.3560975609756</v>
+      </c>
+      <c r="H340" t="n">
+        <v>313.0252173913044</v>
+      </c>
+      <c r="I340" t="n">
+        <v>310.9617647058824</v>
+      </c>
+      <c r="J340" t="n">
+        <v>317.3457142857143</v>
+      </c>
+      <c r="K340" t="n">
+        <v>321.8503278688525</v>
+      </c>
+      <c r="L340" t="n">
+        <v>313.920909090909</v>
+      </c>
+      <c r="M340" t="n">
+        <v>324.9775862068965</v>
+      </c>
+      <c r="N340" t="n">
+        <v>323.6366666666667</v>
+      </c>
+      <c r="O340" t="n">
+        <v>331.5417647058824</v>
+      </c>
+      <c r="P340" t="n">
+        <v>333.7351724137931</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="R340" t="n">
+        <v>319.0831578947368</v>
+      </c>
+      <c r="S340" t="n">
+        <v>344.99</v>
+      </c>
+      <c r="T340" t="n">
+        <v>319.09</v>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>345.3605882352941</v>
+      </c>
+      <c r="C341" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="D341" t="n">
+        <v>328.3945454545454</v>
+      </c>
+      <c r="E341" t="n">
+        <v>342.3966666666667</v>
+      </c>
+      <c r="F341" t="n">
+        <v>338.54</v>
+      </c>
+      <c r="G341" t="n">
+        <v>336.68</v>
+      </c>
+      <c r="H341" t="n">
+        <v>314.1734782608696</v>
+      </c>
+      <c r="I341" t="n">
+        <v>314.4005882352941</v>
+      </c>
+      <c r="J341" t="n">
+        <v>326.8385714285715</v>
+      </c>
+      <c r="K341" t="n">
+        <v>320.2083606557377</v>
+      </c>
+      <c r="L341" t="n">
+        <v>319.1918181818182</v>
+      </c>
+      <c r="M341" t="n">
+        <v>323.1227586206896</v>
+      </c>
+      <c r="N341" t="n">
+        <v>327.8633333333333</v>
+      </c>
+      <c r="O341" t="n">
+        <v>336.6505882352941</v>
+      </c>
+      <c r="P341" t="n">
+        <v>346.0455172413793</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>339.36</v>
+      </c>
+      <c r="R341" t="n">
+        <v>327.3073684210527</v>
+      </c>
+      <c r="S341" t="n">
+        <v>336.96</v>
+      </c>
+      <c r="T341" t="n">
+        <v>339.02</v>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>361.1047058823529</v>
+      </c>
+      <c r="C342" t="n">
+        <v>328.82</v>
+      </c>
+      <c r="D342" t="n">
+        <v>330.4975757575758</v>
+      </c>
+      <c r="E342" t="n">
+        <v>320.9522222222222</v>
+      </c>
+      <c r="F342" t="n">
+        <v>327.1333333333333</v>
+      </c>
+      <c r="G342" t="n">
+        <v>333.1160975609756</v>
+      </c>
+      <c r="H342" t="n">
+        <v>332.5195652173913</v>
+      </c>
+      <c r="I342" t="n">
+        <v>333.3347058823529</v>
+      </c>
+      <c r="J342" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>289.5163636363636</v>
+      </c>
+      <c r="M342" t="n">
+        <v>297.2824137931034</v>
+      </c>
+      <c r="N342" t="n">
+        <v>306.1811111111111</v>
+      </c>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="n">
+        <v>312.0948275862069</v>
+      </c>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="n">
+        <v>298.4615789473684</v>
+      </c>
+      <c r="S342" t="n">
+        <v>300.6966666666667</v>
+      </c>
+      <c r="T342" t="n">
+        <v>354.8833333333333</v>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>347.5705882352942</v>
+      </c>
+      <c r="C343" t="n">
+        <v>336.63</v>
+      </c>
+      <c r="D343" t="n">
+        <v>328.7348484848485</v>
+      </c>
+      <c r="E343" t="n">
+        <v>334.9655555555556</v>
+      </c>
+      <c r="F343" t="n">
+        <v>340.8833333333333</v>
+      </c>
+      <c r="G343" t="n">
+        <v>334.2378048780488</v>
+      </c>
+      <c r="H343" t="n">
+        <v>326.2408695652174</v>
+      </c>
+      <c r="I343" t="n">
+        <v>326.1205882352941</v>
+      </c>
+      <c r="J343" t="n">
+        <v>329.67</v>
+      </c>
+      <c r="K343" t="n">
+        <v>325.1804918032787</v>
+      </c>
+      <c r="L343" t="n">
+        <v>321.0172727272728</v>
+      </c>
+      <c r="M343" t="n">
+        <v>330.6551724137931</v>
+      </c>
+      <c r="N343" t="n">
+        <v>328.5677777777778</v>
+      </c>
+      <c r="O343" t="n">
+        <v>339.2405882352941</v>
+      </c>
+      <c r="P343" t="n">
+        <v>348.1003448275862</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>336.4933333333333</v>
+      </c>
+      <c r="R343" t="n">
+        <v>336.1568421052632</v>
+      </c>
+      <c r="S343" t="n">
+        <v>336.6266666666667</v>
+      </c>
+      <c r="T343" t="n">
+        <v>339.1433333333333</v>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21160,7 +21568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24658,6 +25066,66 @@
       </c>
       <c r="B349" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -24831,28 +25299,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2003675359250222</v>
+        <v>-0.1746681973158981</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01373962782928417</v>
+        <v>0.01080132278407786</v>
       </c>
       <c r="M2" t="n">
-        <v>9.173939764352012</v>
+        <v>9.096371892502615</v>
       </c>
       <c r="N2" t="n">
-        <v>147.1152729293412</v>
+        <v>145.7612883692243</v>
       </c>
       <c r="O2" t="n">
-        <v>12.12910849689049</v>
+        <v>12.07316397508227</v>
       </c>
       <c r="P2" t="n">
-        <v>347.7838006602518</v>
+        <v>347.5251441089727</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24903,28 +25371,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2670971049843189</v>
+        <v>-0.2527615669157989</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02750044294936294</v>
+        <v>0.02572121667978433</v>
       </c>
       <c r="M3" t="n">
-        <v>8.491673226790573</v>
+        <v>8.383366376712358</v>
       </c>
       <c r="N3" t="n">
-        <v>129.7911551726053</v>
+        <v>127.4166538821087</v>
       </c>
       <c r="O3" t="n">
-        <v>11.39259211824093</v>
+        <v>11.28789855916985</v>
       </c>
       <c r="P3" t="n">
-        <v>336.1575434712066</v>
+        <v>336.0153445153113</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24981,28 +25449,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03253077320264975</v>
+        <v>-0.004539687067510148</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004609612290878973</v>
+        <v>9.303623405121364e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300239027967962</v>
+        <v>8.252770398744046</v>
       </c>
       <c r="N4" t="n">
-        <v>117.3376921969984</v>
+        <v>115.9956776839177</v>
       </c>
       <c r="O4" t="n">
-        <v>10.832252406448</v>
+        <v>10.77012895391312</v>
       </c>
       <c r="P4" t="n">
-        <v>323.183862257168</v>
+        <v>322.9046120979737</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25059,28 +25527,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08006842184541089</v>
+        <v>-0.04857903343259115</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003134402842778994</v>
+        <v>0.001182401266838773</v>
       </c>
       <c r="M5" t="n">
-        <v>7.704367524088711</v>
+        <v>7.736206982184717</v>
       </c>
       <c r="N5" t="n">
-        <v>104.645208629586</v>
+        <v>104.8369828574327</v>
       </c>
       <c r="O5" t="n">
-        <v>10.22962407078511</v>
+        <v>10.23899325409646</v>
       </c>
       <c r="P5" t="n">
-        <v>327.8547572169228</v>
+        <v>327.5418610720825</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25137,28 +25605,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2901020085303654</v>
+        <v>-0.2458463207146564</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02259325483416597</v>
+        <v>0.0168298651426132</v>
       </c>
       <c r="M6" t="n">
-        <v>10.38154491502265</v>
+        <v>10.35188232662629</v>
       </c>
       <c r="N6" t="n">
-        <v>190.2931494054985</v>
+        <v>188.9351958280607</v>
       </c>
       <c r="O6" t="n">
-        <v>13.79467830018151</v>
+        <v>13.74536997785293</v>
       </c>
       <c r="P6" t="n">
-        <v>331.1561824220354</v>
+        <v>330.7229255748785</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25209,28 +25677,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1445262890286214</v>
+        <v>-0.101843098522589</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005747802556905435</v>
+        <v>0.002953404889989519</v>
       </c>
       <c r="M7" t="n">
-        <v>9.508971590205785</v>
+        <v>9.487990907985768</v>
       </c>
       <c r="N7" t="n">
-        <v>186.9720410946203</v>
+        <v>185.2558002958972</v>
       </c>
       <c r="O7" t="n">
-        <v>13.67377201413788</v>
+        <v>13.6108706663423</v>
       </c>
       <c r="P7" t="n">
-        <v>328.1061089786963</v>
+        <v>327.6823906902088</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25281,28 +25749,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.1249671501654909</v>
+        <v>-0.08977548815426988</v>
       </c>
       <c r="J8" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K8" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003319615413194588</v>
+        <v>0.001761698330214223</v>
       </c>
       <c r="M8" t="n">
-        <v>11.48589169575559</v>
+        <v>11.46488447275082</v>
       </c>
       <c r="N8" t="n">
-        <v>237.4807591403299</v>
+        <v>236.5013745027255</v>
       </c>
       <c r="O8" t="n">
-        <v>15.41041073885865</v>
+        <v>15.37860118810308</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0806535881361</v>
+        <v>316.7243031809094</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25353,28 +25821,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2818683042646909</v>
+        <v>-0.2358477381689456</v>
       </c>
       <c r="J9" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K9" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01930896961764517</v>
+        <v>0.01385971962014232</v>
       </c>
       <c r="M9" t="n">
-        <v>10.31607097226742</v>
+        <v>10.32176395967445</v>
       </c>
       <c r="N9" t="n">
-        <v>201.3512316737446</v>
+        <v>201.870358305265</v>
       </c>
       <c r="O9" t="n">
-        <v>14.18982845822121</v>
+        <v>14.20810889264525</v>
       </c>
       <c r="P9" t="n">
-        <v>319.801382978751</v>
+        <v>319.331687547729</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25425,28 +25893,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.03825251363485131</v>
+        <v>0.004764433984237254</v>
       </c>
       <c r="J10" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K10" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000315810594673227</v>
+        <v>5.048523592288134e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>11.99668507337814</v>
+        <v>11.90473605287174</v>
       </c>
       <c r="N10" t="n">
-        <v>237.8644373211584</v>
+        <v>236.0639136900246</v>
       </c>
       <c r="O10" t="n">
-        <v>15.42285438306277</v>
+        <v>15.36437156834033</v>
       </c>
       <c r="P10" t="n">
-        <v>317.6209141807809</v>
+        <v>317.1935601299165</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25497,28 +25965,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1871775341760481</v>
+        <v>-0.1739789635267414</v>
       </c>
       <c r="J11" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K11" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01264972819010113</v>
+        <v>0.0112850796919769</v>
       </c>
       <c r="M11" t="n">
-        <v>8.353037360015653</v>
+        <v>8.285732728705606</v>
       </c>
       <c r="N11" t="n">
-        <v>138.0371885807173</v>
+        <v>136.329291700646</v>
       </c>
       <c r="O11" t="n">
-        <v>11.7489228689577</v>
+        <v>11.67601351920449</v>
       </c>
       <c r="P11" t="n">
-        <v>323.9874952788516</v>
+        <v>323.8537903360512</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -25575,28 +26043,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08332565078135969</v>
+        <v>-0.09047212244087111</v>
       </c>
       <c r="J12" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K12" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002717294276232463</v>
+        <v>0.003257551791619573</v>
       </c>
       <c r="M12" t="n">
-        <v>8.654704828602492</v>
+        <v>8.647594497680052</v>
       </c>
       <c r="N12" t="n">
-        <v>130.9433628670232</v>
+        <v>131.2548153433879</v>
       </c>
       <c r="O12" t="n">
-        <v>11.44304867013259</v>
+        <v>11.45664939427702</v>
       </c>
       <c r="P12" t="n">
-        <v>318.3240118894734</v>
+        <v>318.3966580164075</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -25653,28 +26121,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.09945254525597541</v>
+        <v>-0.1054906777180225</v>
       </c>
       <c r="J13" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K13" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006254200928345055</v>
+        <v>0.007056891360724071</v>
       </c>
       <c r="M13" t="n">
-        <v>6.692722331810954</v>
+        <v>6.721169673854448</v>
       </c>
       <c r="N13" t="n">
-        <v>81.32847254978543</v>
+        <v>82.71121657531262</v>
       </c>
       <c r="O13" t="n">
-        <v>9.018230012024834</v>
+        <v>9.094570719682849</v>
       </c>
       <c r="P13" t="n">
-        <v>326.3251617626875</v>
+        <v>326.3858662319822</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -25731,28 +26199,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.008499422523723115</v>
+        <v>-0.01760371791945741</v>
       </c>
       <c r="J14" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K14" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L14" t="n">
-        <v>5.225747504888911e-05</v>
+        <v>0.0002290112956314649</v>
       </c>
       <c r="M14" t="n">
-        <v>5.973211234615077</v>
+        <v>5.964129354148974</v>
       </c>
       <c r="N14" t="n">
-        <v>71.29798176571953</v>
+        <v>71.29764520574669</v>
       </c>
       <c r="O14" t="n">
-        <v>8.443813224232256</v>
+        <v>8.443793294825891</v>
       </c>
       <c r="P14" t="n">
-        <v>326.1434755288316</v>
+        <v>326.2342572411525</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -25809,28 +26277,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05747194131093469</v>
+        <v>0.08661655814238933</v>
       </c>
       <c r="J15" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K15" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001844738170670213</v>
+        <v>0.00427603358281925</v>
       </c>
       <c r="M15" t="n">
-        <v>7.512993562002216</v>
+        <v>7.497143422382035</v>
       </c>
       <c r="N15" t="n">
-        <v>93.023271632879</v>
+        <v>92.66722042699958</v>
       </c>
       <c r="O15" t="n">
-        <v>9.644857263478761</v>
+        <v>9.62638148148096</v>
       </c>
       <c r="P15" t="n">
-        <v>324.8530545206002</v>
+        <v>324.5655447132312</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -25881,28 +26349,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.01849309334165604</v>
+        <v>0.01716968939027776</v>
       </c>
       <c r="J16" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K16" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001399798833998656</v>
+        <v>0.0001231196345309327</v>
       </c>
       <c r="M16" t="n">
-        <v>8.542768387878212</v>
+        <v>8.556338348165527</v>
       </c>
       <c r="N16" t="n">
-        <v>124.2683037174498</v>
+        <v>124.6443949292057</v>
       </c>
       <c r="O16" t="n">
-        <v>11.14756940850559</v>
+        <v>11.1644254186772</v>
       </c>
       <c r="P16" t="n">
-        <v>335.7552163838535</v>
+        <v>335.7684234946978</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -25959,28 +26427,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09189101099658697</v>
+        <v>0.1104835056827249</v>
       </c>
       <c r="J17" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K17" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002349238445894186</v>
+        <v>0.00350657019934586</v>
       </c>
       <c r="M17" t="n">
-        <v>10.31150919066474</v>
+        <v>10.19323856383451</v>
       </c>
       <c r="N17" t="n">
-        <v>184.1533173026147</v>
+        <v>181.5027612597756</v>
       </c>
       <c r="O17" t="n">
-        <v>13.57031014025157</v>
+        <v>13.47229606487979</v>
       </c>
       <c r="P17" t="n">
-        <v>331.8608241374935</v>
+        <v>331.6752699767639</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26037,28 +26505,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1573147950396637</v>
+        <v>0.1238530600068579</v>
       </c>
       <c r="J18" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K18" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L18" t="n">
-        <v>0.006912462374496164</v>
+        <v>0.004390709839301898</v>
       </c>
       <c r="M18" t="n">
-        <v>10.1461948171216</v>
+        <v>10.14940251037525</v>
       </c>
       <c r="N18" t="n">
-        <v>185.097292592932</v>
+        <v>185.363005729332</v>
       </c>
       <c r="O18" t="n">
-        <v>13.60504658547452</v>
+        <v>13.6148083251044</v>
       </c>
       <c r="P18" t="n">
-        <v>325.9584476876489</v>
+        <v>326.2872387886082</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26115,28 +26583,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.202174867931652</v>
+        <v>0.2033598351535706</v>
       </c>
       <c r="J19" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K19" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009834133009391621</v>
+        <v>0.01019286187168444</v>
       </c>
       <c r="M19" t="n">
-        <v>11.19839052770091</v>
+        <v>11.18832918269819</v>
       </c>
       <c r="N19" t="n">
-        <v>214.7219952078705</v>
+        <v>214.4668472989358</v>
       </c>
       <c r="O19" t="n">
-        <v>14.65339534742274</v>
+        <v>14.64468665758799</v>
       </c>
       <c r="P19" t="n">
-        <v>325.3715072674786</v>
+        <v>325.3602718016288</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26193,28 +26661,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06331743757781741</v>
+        <v>0.08815238906655293</v>
       </c>
       <c r="J20" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K20" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0009429488018448673</v>
+        <v>0.001879105586496954</v>
       </c>
       <c r="M20" t="n">
-        <v>11.10239203213082</v>
+        <v>11.06307927742817</v>
       </c>
       <c r="N20" t="n">
-        <v>213.8850070985991</v>
+        <v>212.5505475858079</v>
       </c>
       <c r="O20" t="n">
-        <v>14.62480793373366</v>
+        <v>14.57911340191192</v>
       </c>
       <c r="P20" t="n">
-        <v>328.9258809044507</v>
+        <v>328.6720238122517</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26252,7 +26720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U337"/>
+  <dimension ref="A1:U343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57163,6 +57631,636 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:06:19+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-38.724803211571974,174.60860026130064</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-38.724091407794184,174.6087856563301</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-38.72339293523656,174.60871094470093</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-38.72269530960379,174.60861958360886</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-38.721992839361185,174.60862256261757</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-38.72129559230532,174.60852355181396</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-38.72059735073993,174.60849158551778</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>-38.719909890820496,174.60845912482714</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>-38.71922223413023,174.6085574631775</t>
+        </is>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>-38.71853209048407,174.6087436180637</t>
+        </is>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>-38.71783929015504,174.60889428907188</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>-38.71713559456104,174.60889915647584</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>-38.71644262873723,174.60904779282626</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>-38.71574405044152,174.60912044908812</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>-38.71504661308759,174.6091963463089</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>-38.71434085123329,174.60917363515603</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>-38.71366627834965,174.60953978486188</t>
+        </is>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>-38.7129569104234,174.60948457835204</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>-38.71225920795171,174.60957074687073</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>-38.72479583027287,174.60874420587484</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-38.72409001888205,174.60881274102434</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-38.72338594504737,174.60884725714556</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-38.72269187533696,174.60868655444912</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-38.7219921900444,174.60863522472653</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-38.721289803335274,174.60863644044974</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-38.72058311772553,174.60886094221402</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>-38.71991668191079,174.60873744304746</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>-38.719235010780004,174.60872855214106</t>
+        </is>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>-38.71854634132114,174.60893444883308</t>
+        </is>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>-38.71784939233315,174.6090295655709</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>-38.71714659463107,174.60904645432316</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>-38.71644742299484,174.6091119907262</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>-38.71574395809756,174.6091192167937</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>-38.715040785793846,174.60912246754629</t>
+        </is>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>-38.714345424379104,174.60922902467468</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>-38.71366072452428,174.60947251632297</t>
+        </is>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>-38.71296453635689,174.60957694327857</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>-38.7122708246093,174.60971144668434</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-38.72479510951184,174.60875826143072</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-38.72408757650024,174.6088603687675</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-38.72338428521975,174.6088796242171</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-38.72268482359223,174.60882406652334</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-38.7219874152681,174.60872833521083</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-38.721290652934535,174.60861987285213</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-38.72058570895715,174.60879370020143</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>-38.7199181612743,174.60879807519058</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>-38.71924169884845,174.60881811177993</t>
+        </is>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>-38.71854095006225,174.6088622548128</t>
+        </is>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>-38.7178508247188,174.60904874656967</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>-38.71714446084493,174.60901788138796</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>-38.71644868923531,174.6091289465033</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>-38.715745077325685,174.6091341524719</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>-38.71504730924766,174.6092051723065</t>
+        </is>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>-38.71435097947253,174.6092963078904</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>-38.71366974797993,174.60958180964624</t>
+        </is>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>-38.71294911445925,174.60939015495947</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>-38.71227738978663,174.60979096439658</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-38.7247974569987,174.60871248298352</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-38.72409201396996,174.6087738354674</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-38.72338783242834,174.60881045251045</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-38.72269624270816,174.60860138722725</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-38.721994136029,174.60859727665303</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-38.72129319755575,174.608570251229</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-38.720586217229716,174.60878051049812</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>-38.719917196812716,174.60875854630575</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>-38.71923358302234,174.60870943322072</t>
+        </is>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>-38.7185423538373,174.6088810526206</t>
+        </is>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>-38.717846318483495,174.60898840396155</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>-38.71714604659245,174.6090391156816</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>-38.716445075741376,174.60908055957594</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>-38.71574069476457,174.60907566899118</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>-38.715036199237176,174.60906431934515</t>
+        </is>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>-38.71434676830612,174.60924530225634</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>-38.713661982785204,174.60948775647435</t>
+        </is>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>-38.71295669640523,174.6094819861876</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>-38.712258572193655,174.60956304669244</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>-38.724806722490904,174.60853179276393</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>-38.72408790607579,174.60885394189154</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>-38.723389070107395,174.608786317182</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>-38.72268362234704,174.60884749100822</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>-38.72198742311495,174.60872818219445</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>-38.72129110019687,174.60861115100124</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-38.720594337842044,174.60856977486554</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>-38.71991188625992,174.60854090079056</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>-38.71923579610645,174.60873906836525</t>
+        </is>
+      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>-38.717871688382054,174.60932813563605</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>-38.717168137871795,174.60933493920174</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>-38.71646361225786,174.60932877794312</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>-38.71506683911192,174.60945277770037</t>
+        </is>
+      </c>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>-38.71368921827705,174.60981764086006</t>
+        </is>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>-38.71299093543075,174.60989669454716</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>-38.71224359396391,174.6093816351004</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-38.72479875761157,174.6086871195214</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-38.72409250244084,174.60876430991766</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-38.723388032704406,174.60880654703877</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-38.72269186945185,174.60868666921255</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-38.7219955150812,174.6085703840147</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-38.72129176032389,174.60859827815375</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-38.720591558716954,174.608641896241</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>-38.71991390968978,174.6086238262451</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>-38.7192311623003,174.60867701773884</t>
+        </is>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>-38.71853810297959,174.60882412994775</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>-38.717844757848304,174.60896750572965</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>-38.71713960688274,174.6089528836898</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>-38.71644447349044,174.60907249508847</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>-38.71573847294371,174.60904601985527</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>-38.715034344751295,174.60904080834612</t>
+        </is>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>-38.714349475037466,174.60927808614608</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>-38.71365362713992,174.60938655272912</t>
+        </is>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>-38.712957011137824,174.60948579819413</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>-38.71225845574287,174.60956163626375</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U343"/>
+  <dimension ref="A1:U345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21557,6 +21557,144 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>355.0911764705882</v>
+      </c>
+      <c r="C344" t="n">
+        <v>339.38</v>
+      </c>
+      <c r="D344" t="n">
+        <v>333.3378787878788</v>
+      </c>
+      <c r="E344" t="n">
+        <v>336.5777777777778</v>
+      </c>
+      <c r="F344" t="n">
+        <v>342.2066666666667</v>
+      </c>
+      <c r="G344" t="n">
+        <v>333.7387804878049</v>
+      </c>
+      <c r="H344" t="n">
+        <v>316.6973913043478</v>
+      </c>
+      <c r="I344" t="n">
+        <v>310.3911764705882</v>
+      </c>
+      <c r="J344" t="n">
+        <v>318.1914285714286</v>
+      </c>
+      <c r="K344" t="n">
+        <v>322.6781967213115</v>
+      </c>
+      <c r="L344" t="n">
+        <v>322.0918181818182</v>
+      </c>
+      <c r="M344" t="n">
+        <v>330.0158620689655</v>
+      </c>
+      <c r="N344" t="n">
+        <v>328.3088888888889</v>
+      </c>
+      <c r="O344" t="n">
+        <v>336.8111764705882</v>
+      </c>
+      <c r="P344" t="n">
+        <v>351.7917241379311</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>345.3966666666667</v>
+      </c>
+      <c r="R344" t="n">
+        <v>331.1168421052632</v>
+      </c>
+      <c r="S344" t="n">
+        <v>329.6833333333333</v>
+      </c>
+      <c r="T344" t="n">
+        <v>331.3766666666667</v>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>338.1558823529411</v>
+      </c>
+      <c r="C345" t="n">
+        <v>324.7</v>
+      </c>
+      <c r="D345" t="n">
+        <v>312.7927272727272</v>
+      </c>
+      <c r="E345" t="n">
+        <v>331.34</v>
+      </c>
+      <c r="F345" t="n">
+        <v>326.72</v>
+      </c>
+      <c r="G345" t="n">
+        <v>324.9346341463415</v>
+      </c>
+      <c r="H345" t="n">
+        <v>330.8504347826087</v>
+      </c>
+      <c r="I345" t="n">
+        <v>326.9858823529411</v>
+      </c>
+      <c r="J345" t="n">
+        <v>322.7285714285715</v>
+      </c>
+      <c r="K345" t="n">
+        <v>315.3737704918033</v>
+      </c>
+      <c r="L345" t="n">
+        <v>307.4890909090909</v>
+      </c>
+      <c r="M345" t="n">
+        <v>313.6465517241379</v>
+      </c>
+      <c r="N345" t="n">
+        <v>326.07</v>
+      </c>
+      <c r="O345" t="n">
+        <v>317.9658823529412</v>
+      </c>
+      <c r="P345" t="n">
+        <v>330.9331034482759</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>318.57</v>
+      </c>
+      <c r="R345" t="n">
+        <v>322.6631578947368</v>
+      </c>
+      <c r="S345" t="n">
+        <v>321.04</v>
+      </c>
+      <c r="T345" t="n">
+        <v>343.26</v>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21568,7 +21706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25126,6 +25264,26 @@
       </c>
       <c r="B355" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -25299,28 +25457,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1746681973158981</v>
+        <v>-0.1698001176280503</v>
       </c>
       <c r="J2" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K2" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01080132278407786</v>
+        <v>0.01031423117505226</v>
       </c>
       <c r="M2" t="n">
-        <v>9.096371892502615</v>
+        <v>9.087972384280802</v>
       </c>
       <c r="N2" t="n">
-        <v>145.7612883692243</v>
+        <v>145.3146178802447</v>
       </c>
       <c r="O2" t="n">
-        <v>12.07316397508227</v>
+        <v>12.05465129650148</v>
       </c>
       <c r="P2" t="n">
-        <v>347.5251441089727</v>
+        <v>347.475938100052</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25371,28 +25529,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2527615669157989</v>
+        <v>-0.2493521593293133</v>
       </c>
       <c r="J3" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K3" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02572121667978433</v>
+        <v>0.02532261723563611</v>
       </c>
       <c r="M3" t="n">
-        <v>8.383366376712358</v>
+        <v>8.373701448586477</v>
       </c>
       <c r="N3" t="n">
-        <v>127.4166538821087</v>
+        <v>126.9258019944635</v>
       </c>
       <c r="O3" t="n">
-        <v>11.28789855916985</v>
+        <v>11.26613518445716</v>
       </c>
       <c r="P3" t="n">
-        <v>336.0153445153113</v>
+        <v>335.981391598069</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25449,28 +25607,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.004539687067510148</v>
+        <v>-0.004154261091833531</v>
       </c>
       <c r="J4" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K4" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L4" t="n">
-        <v>9.303623405121364e-06</v>
+        <v>7.854448832222971e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>8.252770398744046</v>
+        <v>8.267976651117074</v>
       </c>
       <c r="N4" t="n">
-        <v>115.9956776839177</v>
+        <v>115.9172147895789</v>
       </c>
       <c r="O4" t="n">
-        <v>10.77012895391312</v>
+        <v>10.76648572142177</v>
       </c>
       <c r="P4" t="n">
-        <v>322.9046120979737</v>
+        <v>322.9008263694507</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25527,28 +25685,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04857903343259115</v>
+        <v>-0.03725808276451231</v>
       </c>
       <c r="J5" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K5" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001182401266838773</v>
+        <v>0.0007032686938388544</v>
       </c>
       <c r="M5" t="n">
-        <v>7.736206982184717</v>
+        <v>7.731287931937739</v>
       </c>
       <c r="N5" t="n">
-        <v>104.8369828574327</v>
+        <v>104.5232883801482</v>
       </c>
       <c r="O5" t="n">
-        <v>10.23899325409646</v>
+        <v>10.22366315858206</v>
       </c>
       <c r="P5" t="n">
-        <v>327.5418610720825</v>
+        <v>327.4286446027446</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25605,28 +25763,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2458463207146564</v>
+        <v>-0.2318359961362515</v>
       </c>
       <c r="J6" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0168298651426132</v>
+        <v>0.01512178296639088</v>
       </c>
       <c r="M6" t="n">
-        <v>10.35188232662629</v>
+        <v>10.34139415915888</v>
       </c>
       <c r="N6" t="n">
-        <v>188.9351958280607</v>
+        <v>188.7043379322094</v>
       </c>
       <c r="O6" t="n">
-        <v>13.74536997785293</v>
+        <v>13.73696975072048</v>
       </c>
       <c r="P6" t="n">
-        <v>330.7229255748785</v>
+        <v>330.5850424986152</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25677,28 +25835,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.101843098522589</v>
+        <v>-0.09600509793031313</v>
       </c>
       <c r="J7" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K7" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002953404889989519</v>
+        <v>0.002659019337338586</v>
       </c>
       <c r="M7" t="n">
-        <v>9.487990907985768</v>
+        <v>9.446938035833956</v>
       </c>
       <c r="N7" t="n">
-        <v>185.2558002958972</v>
+        <v>184.1851525902884</v>
       </c>
       <c r="O7" t="n">
-        <v>13.6108706663423</v>
+        <v>13.57148306524708</v>
       </c>
       <c r="P7" t="n">
-        <v>327.6823906902088</v>
+        <v>327.6241158535312</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25749,28 +25907,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.08977548815426988</v>
+        <v>-0.07647899292046946</v>
       </c>
       <c r="J8" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001761698330214223</v>
+        <v>0.001292160566424116</v>
       </c>
       <c r="M8" t="n">
-        <v>11.46488447275082</v>
+        <v>11.44899637677638</v>
       </c>
       <c r="N8" t="n">
-        <v>236.5013745027255</v>
+        <v>235.7485379514763</v>
       </c>
       <c r="O8" t="n">
-        <v>15.37860118810308</v>
+        <v>15.3541049218597</v>
       </c>
       <c r="P8" t="n">
-        <v>316.7243031809094</v>
+        <v>316.5887918213517</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25821,28 +25979,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2358477381689456</v>
+        <v>-0.2283851921059441</v>
       </c>
       <c r="J9" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K9" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01385971962014232</v>
+        <v>0.0131452089276537</v>
       </c>
       <c r="M9" t="n">
-        <v>10.32176395967445</v>
+        <v>10.30456940676948</v>
       </c>
       <c r="N9" t="n">
-        <v>201.870358305265</v>
+        <v>201.1176683588815</v>
       </c>
       <c r="O9" t="n">
-        <v>14.20810889264525</v>
+        <v>14.18159611464385</v>
       </c>
       <c r="P9" t="n">
-        <v>319.331687547729</v>
+        <v>319.2549946746951</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25893,28 +26051,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.004764433984237254</v>
+        <v>0.008995044548746441</v>
       </c>
       <c r="J10" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L10" t="n">
-        <v>5.048523592288134e-06</v>
+        <v>1.823927997435248e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>11.90473605287174</v>
+        <v>11.83790981430852</v>
       </c>
       <c r="N10" t="n">
-        <v>236.0639136900246</v>
+        <v>234.5276018578621</v>
       </c>
       <c r="O10" t="n">
-        <v>15.36437156834033</v>
+        <v>15.31429403720139</v>
       </c>
       <c r="P10" t="n">
-        <v>317.1935601299165</v>
+        <v>317.151248338454</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -25965,28 +26123,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1739789635267414</v>
+        <v>-0.1745576155912389</v>
       </c>
       <c r="J11" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0112850796919769</v>
+        <v>0.01151242320326529</v>
       </c>
       <c r="M11" t="n">
-        <v>8.285732728705606</v>
+        <v>8.252710230560018</v>
       </c>
       <c r="N11" t="n">
-        <v>136.329291700646</v>
+        <v>135.4423562479425</v>
       </c>
       <c r="O11" t="n">
-        <v>11.67601351920449</v>
+        <v>11.63797045227141</v>
       </c>
       <c r="P11" t="n">
-        <v>323.8537903360512</v>
+        <v>323.859722186789</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26043,28 +26201,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09047212244087111</v>
+        <v>-0.0922003202035238</v>
       </c>
       <c r="J12" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K12" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003257551791619573</v>
+        <v>0.003417609336783922</v>
       </c>
       <c r="M12" t="n">
-        <v>8.647594497680052</v>
+        <v>8.639442277644164</v>
       </c>
       <c r="N12" t="n">
-        <v>131.2548153433879</v>
+        <v>130.7232361586406</v>
       </c>
       <c r="O12" t="n">
-        <v>11.45664939427702</v>
+        <v>11.43342626506336</v>
       </c>
       <c r="P12" t="n">
-        <v>318.3966580164075</v>
+        <v>318.4142624825784</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26121,28 +26279,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1054906777180225</v>
+        <v>-0.1079593852274988</v>
       </c>
       <c r="J13" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K13" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007056891360724071</v>
+        <v>0.007443915895995579</v>
       </c>
       <c r="M13" t="n">
-        <v>6.721169673854448</v>
+        <v>6.731856786398091</v>
       </c>
       <c r="N13" t="n">
-        <v>82.71121657531262</v>
+        <v>82.62642369223236</v>
       </c>
       <c r="O13" t="n">
-        <v>9.094570719682849</v>
+        <v>9.089907793384505</v>
       </c>
       <c r="P13" t="n">
-        <v>326.3858662319822</v>
+        <v>326.4106947537118</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26199,28 +26357,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01760371791945741</v>
+        <v>-0.01574073140789854</v>
       </c>
       <c r="J14" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K14" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002290112956314649</v>
+        <v>0.0001855886171193699</v>
       </c>
       <c r="M14" t="n">
-        <v>5.964129354148974</v>
+        <v>5.931597047331124</v>
       </c>
       <c r="N14" t="n">
-        <v>71.29764520574669</v>
+        <v>70.82623471196644</v>
       </c>
       <c r="O14" t="n">
-        <v>8.443793294825891</v>
+        <v>8.415832383785126</v>
       </c>
       <c r="P14" t="n">
-        <v>326.2342572411525</v>
+        <v>326.2156421236983</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26277,28 +26435,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08661655814238933</v>
+        <v>0.08746843123152005</v>
       </c>
       <c r="J15" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K15" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00427603358281925</v>
+        <v>0.004392931222287677</v>
       </c>
       <c r="M15" t="n">
-        <v>7.497143422382035</v>
+        <v>7.510358810515298</v>
       </c>
       <c r="N15" t="n">
-        <v>92.66722042699958</v>
+        <v>92.64207380660994</v>
       </c>
       <c r="O15" t="n">
-        <v>9.62638148148096</v>
+        <v>9.62507526238678</v>
       </c>
       <c r="P15" t="n">
-        <v>324.5655447132312</v>
+        <v>324.5571674547818</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26349,28 +26507,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.01716968939027776</v>
+        <v>0.02428500996217162</v>
       </c>
       <c r="J16" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001231196345309327</v>
+        <v>0.0002479376343305084</v>
       </c>
       <c r="M16" t="n">
-        <v>8.556338348165527</v>
+        <v>8.563942361014911</v>
       </c>
       <c r="N16" t="n">
-        <v>124.6443949292057</v>
+        <v>124.7162727139971</v>
       </c>
       <c r="O16" t="n">
-        <v>11.1644254186772</v>
+        <v>11.16764400910045</v>
       </c>
       <c r="P16" t="n">
-        <v>335.7684234946978</v>
+        <v>335.6971693648417</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26427,28 +26585,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1104835056827249</v>
+        <v>0.1069510079782118</v>
       </c>
       <c r="J17" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K17" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00350657019934586</v>
+        <v>0.003309575336662651</v>
       </c>
       <c r="M17" t="n">
-        <v>10.19323856383451</v>
+        <v>10.22120609352844</v>
       </c>
       <c r="N17" t="n">
-        <v>181.5027612597756</v>
+        <v>181.5359775263441</v>
       </c>
       <c r="O17" t="n">
-        <v>13.47229606487979</v>
+        <v>13.47352877038321</v>
       </c>
       <c r="P17" t="n">
-        <v>331.6752699767639</v>
+        <v>331.7108892816339</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26505,28 +26663,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1238530600068579</v>
+        <v>0.1202831416957901</v>
       </c>
       <c r="J18" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K18" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004390709839301898</v>
+        <v>0.004199178454694974</v>
       </c>
       <c r="M18" t="n">
-        <v>10.14940251037525</v>
+        <v>10.10732838570571</v>
       </c>
       <c r="N18" t="n">
-        <v>185.363005729332</v>
+        <v>184.1866465991838</v>
       </c>
       <c r="O18" t="n">
-        <v>13.6148083251044</v>
+        <v>13.57153810734744</v>
       </c>
       <c r="P18" t="n">
-        <v>326.2872387886082</v>
+        <v>326.3225440052392</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26583,28 +26741,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2033598351535706</v>
+        <v>0.1960315598368284</v>
       </c>
       <c r="J19" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K19" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01019286187168444</v>
+        <v>0.009603097630211943</v>
       </c>
       <c r="M19" t="n">
-        <v>11.18832918269819</v>
+        <v>11.15390659760705</v>
       </c>
       <c r="N19" t="n">
-        <v>214.4668472989358</v>
+        <v>213.2051446679315</v>
       </c>
       <c r="O19" t="n">
-        <v>14.64468665758799</v>
+        <v>14.60154596842168</v>
       </c>
       <c r="P19" t="n">
-        <v>325.3602718016288</v>
+        <v>325.4328036232617</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26661,28 +26819,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08815238906655293</v>
+        <v>0.09756271287050021</v>
       </c>
       <c r="J20" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K20" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001879105586496954</v>
+        <v>0.002328410581991736</v>
       </c>
       <c r="M20" t="n">
-        <v>11.06307927742817</v>
+        <v>11.01438162070264</v>
       </c>
       <c r="N20" t="n">
-        <v>212.5505475858079</v>
+        <v>211.4958204202003</v>
       </c>
       <c r="O20" t="n">
-        <v>14.57911340191192</v>
+        <v>14.54289587462553</v>
       </c>
       <c r="P20" t="n">
-        <v>328.6720238122517</v>
+        <v>328.5753975081082</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26720,7 +26878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U343"/>
+  <dimension ref="A1:U345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58261,6 +58419,220 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>-38.724803183531535,174.60860080813077</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>-38.72409412086294,174.60873274936014</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>-38.72339074167961,174.60875372057612</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>-38.72269281826018,174.60866816679726</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>-38.72199629386044,174.60855519713311</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>-38.72129146664721,174.60860400501744</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-38.72058733442337,174.60875151911992</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>-38.7199183213017,174.60880463403743</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>-38.71924097581734,174.6088084296561</t>
+        </is>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>-38.718540242287126,174.60885277708445</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>-38.7178438391858,174.60895520408158</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>-38.717140153452796,174.60896020259207</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>-38.71644469482248,174.6090754588512</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>-38.71574055700483,174.60907383065043</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>-38.71503101326236,174.60899857219425</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>-38.714341068403236,174.6091762654909</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>-38.71365838590292,174.60944419082963</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>-38.7129635669893,174.60956520229644</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>-38.7122657889618,174.60965045515908</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>-38.72479321690031,174.60879516907752</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>-38.724085481333205,174.60890122533442</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>-38.72337865026397,174.60898950601228</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>-38.72268973576677,174.6087282773297</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>-38.72198717986226,174.6087329257027</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>-38.72128628534643,174.60870504244673</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-38.720593599042886,174.60858894763547</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>-38.7199136669935,174.60861387978835</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>-38.71923709683944,174.60875648637312</t>
+        </is>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>-38.71854648707945,174.60893640068238</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>-38.71785632340261,174.6091223795472</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>-38.71715414802429,174.6091476004728</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>-38.716446608913984,174.60910108967553</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>-38.7157567231387,174.6092895630085</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>-38.71504983807381,174.60923723312868</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>-38.7143663981934,174.60948306174748</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>-38.71366636779892,174.60954086828508</t>
+        </is>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>-38.71297172789424,174.60966404765128</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>-38.712254568794584,174.60951455844366</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U345"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21695,6 +21695,75 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>334.1376470588235</v>
+      </c>
+      <c r="C346" t="n">
+        <v>322.07</v>
+      </c>
+      <c r="D346" t="n">
+        <v>314.240909090909</v>
+      </c>
+      <c r="E346" t="n">
+        <v>317.73</v>
+      </c>
+      <c r="F346" t="n">
+        <v>309.28</v>
+      </c>
+      <c r="G346" t="n">
+        <v>323.9741463414634</v>
+      </c>
+      <c r="H346" t="n">
+        <v>305.3078260869565</v>
+      </c>
+      <c r="I346" t="n">
+        <v>307.6976470588235</v>
+      </c>
+      <c r="J346" t="n">
+        <v>294.2185714285715</v>
+      </c>
+      <c r="K346" t="n">
+        <v>304.9604918032787</v>
+      </c>
+      <c r="L346" t="n">
+        <v>305.0163636363636</v>
+      </c>
+      <c r="M346" t="n">
+        <v>318.1113793103448</v>
+      </c>
+      <c r="N346" t="n">
+        <v>328.41</v>
+      </c>
+      <c r="O346" t="n">
+        <v>323.0876470588236</v>
+      </c>
+      <c r="P346" t="n">
+        <v>324.7727586206897</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="R346" t="n">
+        <v>316.3547368421052</v>
+      </c>
+      <c r="S346" t="n">
+        <v>315.31</v>
+      </c>
+      <c r="T346" t="n">
+        <v>316.58</v>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21706,7 +21775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25284,6 +25353,16 @@
       </c>
       <c r="B357" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -25457,28 +25536,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1698001176280503</v>
+        <v>-0.1760155597428575</v>
       </c>
       <c r="J2" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01031423117505226</v>
+        <v>0.01112985819342771</v>
       </c>
       <c r="M2" t="n">
-        <v>9.087972384280802</v>
+        <v>9.092183469592259</v>
       </c>
       <c r="N2" t="n">
-        <v>145.3146178802447</v>
+        <v>145.0807838369885</v>
       </c>
       <c r="O2" t="n">
-        <v>12.05465129650148</v>
+        <v>12.04494847797152</v>
       </c>
       <c r="P2" t="n">
-        <v>347.475938100052</v>
+        <v>347.5391638861747</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25529,28 +25608,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2493521593293133</v>
+        <v>-0.254631669125366</v>
       </c>
       <c r="J3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02532261723563611</v>
+        <v>0.02652303048698035</v>
       </c>
       <c r="M3" t="n">
-        <v>8.373701448586477</v>
+        <v>8.373636216607864</v>
       </c>
       <c r="N3" t="n">
-        <v>126.9258019944635</v>
+        <v>126.6713724533283</v>
       </c>
       <c r="O3" t="n">
-        <v>11.26613518445716</v>
+        <v>11.2548377355397</v>
       </c>
       <c r="P3" t="n">
-        <v>335.981391598069</v>
+        <v>336.0343166401233</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25607,28 +25686,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.004154261091833531</v>
+        <v>-0.01036677009752641</v>
       </c>
       <c r="J4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K4" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L4" t="n">
-        <v>7.854448832222971e-06</v>
+        <v>4.916164497381637e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>8.267976651117074</v>
+        <v>8.269295487386026</v>
       </c>
       <c r="N4" t="n">
-        <v>115.9172147895789</v>
+        <v>115.7534368501842</v>
       </c>
       <c r="O4" t="n">
-        <v>10.76648572142177</v>
+        <v>10.75887711846288</v>
       </c>
       <c r="P4" t="n">
-        <v>322.9008263694507</v>
+        <v>322.9635018323585</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25685,28 +25764,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03725808276451231</v>
+        <v>-0.04372130349185502</v>
       </c>
       <c r="J5" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K5" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007032686938388544</v>
+        <v>0.0009728763663511275</v>
       </c>
       <c r="M5" t="n">
-        <v>7.731287931937739</v>
+        <v>7.73724039010835</v>
       </c>
       <c r="N5" t="n">
-        <v>104.5232883801482</v>
+        <v>104.4127298280692</v>
       </c>
       <c r="O5" t="n">
-        <v>10.22366315858206</v>
+        <v>10.21825473493733</v>
       </c>
       <c r="P5" t="n">
-        <v>327.4286446027446</v>
+        <v>327.493614664433</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25763,28 +25842,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2318359961362515</v>
+        <v>-0.2426299364324573</v>
       </c>
       <c r="J6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01512178296639088</v>
+        <v>0.01658446886222797</v>
       </c>
       <c r="M6" t="n">
-        <v>10.34139415915888</v>
+        <v>10.36474126337595</v>
       </c>
       <c r="N6" t="n">
-        <v>188.7043379322094</v>
+        <v>188.8710952693309</v>
       </c>
       <c r="O6" t="n">
-        <v>13.73696975072048</v>
+        <v>13.74303806548359</v>
       </c>
       <c r="P6" t="n">
-        <v>330.5850424986152</v>
+        <v>330.6918496603775</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25835,28 +25914,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.09600509793031313</v>
+        <v>-0.09683274354501561</v>
       </c>
       <c r="J7" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002659019337338586</v>
+        <v>0.002724064968850914</v>
       </c>
       <c r="M7" t="n">
-        <v>9.446938035833956</v>
+        <v>9.417840364248748</v>
       </c>
       <c r="N7" t="n">
-        <v>184.1851525902884</v>
+        <v>183.5277607536959</v>
       </c>
       <c r="O7" t="n">
-        <v>13.57148306524708</v>
+        <v>13.54724181350934</v>
       </c>
       <c r="P7" t="n">
-        <v>327.6241158535312</v>
+        <v>327.632423872028</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25907,28 +25986,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.07647899292046946</v>
+        <v>-0.08311559024224482</v>
       </c>
       <c r="J8" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K8" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001292160566424116</v>
+        <v>0.001534719646566707</v>
       </c>
       <c r="M8" t="n">
-        <v>11.44899637677638</v>
+        <v>11.44077279264183</v>
       </c>
       <c r="N8" t="n">
-        <v>235.7485379514763</v>
+        <v>235.1943783581057</v>
       </c>
       <c r="O8" t="n">
-        <v>15.3541049218597</v>
+        <v>15.33604832928306</v>
       </c>
       <c r="P8" t="n">
-        <v>316.5887918213517</v>
+        <v>316.6567385619472</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25979,28 +26058,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2283851921059441</v>
+        <v>-0.2323773958690447</v>
       </c>
       <c r="J9" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K9" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0131452089276537</v>
+        <v>0.01368947803926757</v>
       </c>
       <c r="M9" t="n">
-        <v>10.30456940676948</v>
+        <v>10.28947251392166</v>
       </c>
       <c r="N9" t="n">
-        <v>201.1176683588815</v>
+        <v>200.5156027928137</v>
       </c>
       <c r="O9" t="n">
-        <v>14.18159611464385</v>
+        <v>14.16035320155587</v>
       </c>
       <c r="P9" t="n">
-        <v>319.2549946746951</v>
+        <v>319.296188573165</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26051,28 +26130,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>0.008995044548746441</v>
+        <v>-0.006556301166100779</v>
       </c>
       <c r="J10" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K10" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L10" t="n">
-        <v>1.823927997435248e-05</v>
+        <v>9.681551943252487e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>11.83790981430852</v>
+        <v>11.89867662036396</v>
       </c>
       <c r="N10" t="n">
-        <v>234.5276018578621</v>
+        <v>235.5531603174864</v>
       </c>
       <c r="O10" t="n">
-        <v>15.31429403720139</v>
+        <v>15.34774121222685</v>
       </c>
       <c r="P10" t="n">
-        <v>317.151248338454</v>
+        <v>317.30748739782</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26123,28 +26202,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1745576155912389</v>
+        <v>-0.1846612277305482</v>
       </c>
       <c r="J11" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K11" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01151242320326529</v>
+        <v>0.01288667890505235</v>
       </c>
       <c r="M11" t="n">
-        <v>8.252710230560018</v>
+        <v>8.282208504941639</v>
       </c>
       <c r="N11" t="n">
-        <v>135.4423562479425</v>
+        <v>135.6981233744668</v>
       </c>
       <c r="O11" t="n">
-        <v>11.63797045227141</v>
+        <v>11.64895374591499</v>
       </c>
       <c r="P11" t="n">
-        <v>323.859722186789</v>
+        <v>323.9633005104633</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26201,28 +26280,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0922003202035238</v>
+        <v>-0.09944927367494343</v>
       </c>
       <c r="J12" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K12" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003417609336783922</v>
+        <v>0.003987350131201328</v>
       </c>
       <c r="M12" t="n">
-        <v>8.639442277644164</v>
+        <v>8.652670703078558</v>
       </c>
       <c r="N12" t="n">
-        <v>130.7232361586406</v>
+        <v>130.6888419953473</v>
       </c>
       <c r="O12" t="n">
-        <v>11.43342626506336</v>
+        <v>11.43192206041256</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4142624825784</v>
+        <v>318.488247545308</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26279,28 +26358,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1079593852274988</v>
+        <v>-0.1115911428319523</v>
       </c>
       <c r="J13" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K13" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007443915895995579</v>
+        <v>0.007992046709245026</v>
       </c>
       <c r="M13" t="n">
-        <v>6.731856786398091</v>
+        <v>6.728471873979525</v>
       </c>
       <c r="N13" t="n">
-        <v>82.62642369223236</v>
+        <v>82.44714970766839</v>
       </c>
       <c r="O13" t="n">
-        <v>9.089907793384505</v>
+        <v>9.080041283368066</v>
       </c>
       <c r="P13" t="n">
-        <v>326.4106947537118</v>
+        <v>326.4473151675414</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26357,28 +26436,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01574073140789854</v>
+        <v>-0.01401619912912815</v>
       </c>
       <c r="J14" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K14" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001855886171193699</v>
+        <v>0.0001481212069665006</v>
       </c>
       <c r="M14" t="n">
-        <v>5.931597047331124</v>
+        <v>5.919111394558309</v>
       </c>
       <c r="N14" t="n">
-        <v>70.82623471196644</v>
+        <v>70.60500055209718</v>
       </c>
       <c r="O14" t="n">
-        <v>8.415832383785126</v>
+        <v>8.402678177349005</v>
       </c>
       <c r="P14" t="n">
-        <v>326.2156421236983</v>
+        <v>326.1983168130351</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26435,28 +26514,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08746843123152005</v>
+        <v>0.08490202707904743</v>
       </c>
       <c r="J15" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K15" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004392931222287677</v>
+        <v>0.004167687292170763</v>
       </c>
       <c r="M15" t="n">
-        <v>7.510358810515298</v>
+        <v>7.498544793290087</v>
       </c>
       <c r="N15" t="n">
-        <v>92.64207380660994</v>
+        <v>92.35753039668043</v>
       </c>
       <c r="O15" t="n">
-        <v>9.62507526238678</v>
+        <v>9.610282534695868</v>
       </c>
       <c r="P15" t="n">
-        <v>324.5571674547818</v>
+        <v>324.5827503321877</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26507,28 +26586,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.02428500996217162</v>
+        <v>0.01631480561796666</v>
       </c>
       <c r="J16" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K16" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002479376343305084</v>
+        <v>0.0001123017188198183</v>
       </c>
       <c r="M16" t="n">
-        <v>8.563942361014911</v>
+        <v>8.58021431496562</v>
       </c>
       <c r="N16" t="n">
-        <v>124.7162727139971</v>
+        <v>124.7413380770146</v>
       </c>
       <c r="O16" t="n">
-        <v>11.16764400910045</v>
+        <v>11.16876618418591</v>
       </c>
       <c r="P16" t="n">
-        <v>335.6971693648417</v>
+        <v>335.7774603019446</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26585,28 +26664,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1069510079782118</v>
+        <v>0.09538044988890872</v>
       </c>
       <c r="J17" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K17" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003309575336662651</v>
+        <v>0.002638833443934785</v>
       </c>
       <c r="M17" t="n">
-        <v>10.22120609352844</v>
+        <v>10.25867510474462</v>
       </c>
       <c r="N17" t="n">
-        <v>181.5359775263441</v>
+        <v>181.8524886344374</v>
       </c>
       <c r="O17" t="n">
-        <v>13.47352877038321</v>
+        <v>13.48526932005577</v>
       </c>
       <c r="P17" t="n">
-        <v>331.7108892816339</v>
+        <v>331.8277904956249</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26663,28 +26742,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1202831416957901</v>
+        <v>0.1111621217000446</v>
       </c>
       <c r="J18" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K18" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004199178454694974</v>
+        <v>0.003602954759754695</v>
       </c>
       <c r="M18" t="n">
-        <v>10.10732838570571</v>
+        <v>10.12037694495787</v>
       </c>
       <c r="N18" t="n">
-        <v>184.1866465991838</v>
+        <v>184.1279509802808</v>
       </c>
       <c r="O18" t="n">
-        <v>13.57153810734744</v>
+        <v>13.56937548232345</v>
       </c>
       <c r="P18" t="n">
-        <v>326.3225440052392</v>
+        <v>326.4131137725433</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26741,28 +26820,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1960315598368284</v>
+        <v>0.18532676875526</v>
       </c>
       <c r="J19" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K19" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009603097630211943</v>
+        <v>0.008620927803616452</v>
       </c>
       <c r="M19" t="n">
-        <v>11.15390659760705</v>
+        <v>11.18365870970295</v>
       </c>
       <c r="N19" t="n">
-        <v>213.2051446679315</v>
+        <v>213.2529600357225</v>
       </c>
       <c r="O19" t="n">
-        <v>14.60154596842168</v>
+        <v>14.60318321585135</v>
       </c>
       <c r="P19" t="n">
-        <v>325.4328036232617</v>
+        <v>325.5392385043554</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26819,28 +26898,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09756271287050021</v>
+        <v>0.0869522027364294</v>
       </c>
       <c r="J20" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K20" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002328410581991736</v>
+        <v>0.001857004928199513</v>
       </c>
       <c r="M20" t="n">
-        <v>11.01438162070264</v>
+        <v>11.04147051173076</v>
       </c>
       <c r="N20" t="n">
-        <v>211.4958204202003</v>
+        <v>211.480193394915</v>
       </c>
       <c r="O20" t="n">
-        <v>14.54289587462553</v>
+        <v>14.54235859119541</v>
       </c>
       <c r="P20" t="n">
-        <v>328.5753975081082</v>
+        <v>328.6848393429754</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26878,7 +26957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U345"/>
+  <dimension ref="A1:U346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46725,7 +46804,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>-38.719915122993484,174.6086735517676</t>
+          <t>-38.71991512299348,174.6086735517676</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -47452,7 +47531,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-38.72338945246719,174.60877886096503</t>
+          <t>-38.72338945246718,174.60877886096503</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -51127,7 +51206,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>-38.72267823793839,174.60895248675527</t>
+          <t>-38.722678237938396,174.60895248675527</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -58633,6 +58712,113 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:53+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>-38.724790852071564,174.60884128506748</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>-38.72408393348998,174.60893140869518</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>-38.723379502576364,174.60897288602692</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>-38.72268172597871,174.6088844703238</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>-38.72197691599301,174.60893307111218</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>-38.721285720087465,174.6087160651178</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-38.720582292849734,174.60888234738698</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>-38.71991907672502,174.60883559585173</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>-38.71926147074949,174.60908288195023</t>
+        </is>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>-38.718555389627156,174.6090556155201</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>-38.71785843737182,174.60915068791712</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>-38.71715033095094,174.6090964865705</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>-38.7164446083795,174.60907430133014</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>-38.71575232955446,174.60923093136674</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>-38.7150553976636,174.60930771880976</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>-38.714366974147154,174.6094900378574</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>-38.71367232410348,174.60961301223836</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>-38.71297713802743,174.60972957607126</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>-38.712279759657505,174.6098196685403</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U346"/>
+  <dimension ref="A1:U347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21764,6 +21764,71 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>335.9423529411765</v>
+      </c>
+      <c r="C347" t="n">
+        <v>321.42</v>
+      </c>
+      <c r="D347" t="n">
+        <v>315.169696969697</v>
+      </c>
+      <c r="E347" t="n">
+        <v>316.0277777777778</v>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="n">
+        <v>331.3714634146341</v>
+      </c>
+      <c r="H347" t="n">
+        <v>324.1269565217391</v>
+      </c>
+      <c r="I347" t="n">
+        <v>325.2523529411765</v>
+      </c>
+      <c r="J347" t="n">
+        <v>307.6142857142857</v>
+      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>308.3145454545455</v>
+      </c>
+      <c r="M347" t="n">
+        <v>319.2134482758621</v>
+      </c>
+      <c r="N347" t="n">
+        <v>320.2988888888889</v>
+      </c>
+      <c r="O347" t="n">
+        <v>327.2823529411764</v>
+      </c>
+      <c r="P347" t="n">
+        <v>335.5468965517241</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>336.4766666666667</v>
+      </c>
+      <c r="R347" t="n">
+        <v>318.8442105263158</v>
+      </c>
+      <c r="S347" t="n">
+        <v>337.6333333333333</v>
+      </c>
+      <c r="T347" t="n">
+        <v>327.9566666666667</v>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21775,7 +21840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25363,6 +25428,16 @@
       </c>
       <c r="B358" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -25536,28 +25611,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1760155597428575</v>
+        <v>-0.18087667007364</v>
       </c>
       <c r="J2" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K2" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01112985819342771</v>
+        <v>0.01181232977685054</v>
       </c>
       <c r="M2" t="n">
-        <v>9.092183469592259</v>
+        <v>9.088452711354792</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0807838369885</v>
+        <v>144.7398419042937</v>
       </c>
       <c r="O2" t="n">
-        <v>12.04494847797152</v>
+        <v>12.03078725205852</v>
       </c>
       <c r="P2" t="n">
-        <v>347.5391638861747</v>
+        <v>347.5886677064193</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25608,28 +25683,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.254631669125366</v>
+        <v>-0.2602555548195739</v>
       </c>
       <c r="J3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02652303048698035</v>
+        <v>0.0278184256812275</v>
       </c>
       <c r="M3" t="n">
-        <v>8.373636216607864</v>
+        <v>8.375465936094894</v>
       </c>
       <c r="N3" t="n">
-        <v>126.6713724533283</v>
+        <v>126.4501732814475</v>
       </c>
       <c r="O3" t="n">
-        <v>11.2548377355397</v>
+        <v>11.24500659321494</v>
       </c>
       <c r="P3" t="n">
-        <v>336.0343166401233</v>
+        <v>336.0907555330776</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25686,28 +25761,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01036677009752641</v>
+        <v>-0.01578595139796494</v>
       </c>
       <c r="J4" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K4" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" t="n">
-        <v>4.916164497381637e-05</v>
+        <v>0.000114624903213123</v>
       </c>
       <c r="M4" t="n">
-        <v>8.269295487386026</v>
+        <v>8.266423068525548</v>
       </c>
       <c r="N4" t="n">
-        <v>115.7534368501842</v>
+        <v>115.5298695794249</v>
       </c>
       <c r="O4" t="n">
-        <v>10.75887711846288</v>
+        <v>10.74848219886998</v>
       </c>
       <c r="P4" t="n">
-        <v>322.9635018323585</v>
+        <v>323.018233667461</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25764,28 +25839,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04372130349185502</v>
+        <v>-0.05129726826152103</v>
       </c>
       <c r="J5" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009728763663511275</v>
+        <v>0.001343673443165772</v>
       </c>
       <c r="M5" t="n">
-        <v>7.73724039010835</v>
+        <v>7.749168799784157</v>
       </c>
       <c r="N5" t="n">
-        <v>104.4127298280692</v>
+        <v>104.4184640978324</v>
       </c>
       <c r="O5" t="n">
-        <v>10.21825473493733</v>
+        <v>10.21853532057469</v>
       </c>
       <c r="P5" t="n">
-        <v>327.493614664433</v>
+        <v>327.5698540626742</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25845,7 +25920,7 @@
         <v>-0.2426299364324573</v>
       </c>
       <c r="J6" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K6" t="n">
         <v>274</v>
@@ -25914,28 +25989,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.09683274354501561</v>
+        <v>-0.09259413113912278</v>
       </c>
       <c r="J7" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K7" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002724064968850914</v>
+        <v>0.002507031281031025</v>
       </c>
       <c r="M7" t="n">
-        <v>9.417840364248748</v>
+        <v>9.403259331284854</v>
       </c>
       <c r="N7" t="n">
-        <v>183.5277607536959</v>
+        <v>183.0067139855359</v>
       </c>
       <c r="O7" t="n">
-        <v>13.54724181350934</v>
+        <v>13.52799741223866</v>
       </c>
       <c r="P7" t="n">
-        <v>327.632423872028</v>
+        <v>327.5898287922797</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25986,28 +26061,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.08311559024224482</v>
+        <v>-0.07635285888524457</v>
       </c>
       <c r="J8" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001534719646566707</v>
+        <v>0.001302832718211189</v>
       </c>
       <c r="M8" t="n">
-        <v>11.44077279264183</v>
+        <v>11.43395007079249</v>
       </c>
       <c r="N8" t="n">
-        <v>235.1943783581057</v>
+        <v>234.6622889826443</v>
       </c>
       <c r="O8" t="n">
-        <v>15.33604832928306</v>
+        <v>15.31869083775256</v>
       </c>
       <c r="P8" t="n">
-        <v>316.6567385619472</v>
+        <v>316.5874238476318</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26058,28 +26133,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2323773958690447</v>
+        <v>-0.2241720881751371</v>
       </c>
       <c r="J9" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K9" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01368947803926757</v>
+        <v>0.01280852244904407</v>
       </c>
       <c r="M9" t="n">
-        <v>10.28947251392166</v>
+        <v>10.29220193191067</v>
       </c>
       <c r="N9" t="n">
-        <v>200.5156027928137</v>
+        <v>200.2994916712625</v>
       </c>
       <c r="O9" t="n">
-        <v>14.16035320155587</v>
+        <v>14.15272029227111</v>
       </c>
       <c r="P9" t="n">
-        <v>319.296188573165</v>
+        <v>319.2114298200562</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26130,28 +26205,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.006556301166100779</v>
+        <v>-0.01289977451979767</v>
       </c>
       <c r="J10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L10" t="n">
-        <v>9.681551943252487e-06</v>
+        <v>3.768778144741525e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>11.89867662036396</v>
+        <v>11.89900648448136</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5531603174864</v>
+        <v>235.0505933160381</v>
       </c>
       <c r="O10" t="n">
-        <v>15.34774121222685</v>
+        <v>15.3313597999668</v>
       </c>
       <c r="P10" t="n">
-        <v>317.30748739782</v>
+        <v>317.3712875153512</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26205,7 +26280,7 @@
         <v>-0.1846612277305482</v>
       </c>
       <c r="J11" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" t="n">
         <v>278</v>
@@ -26280,28 +26355,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.09944927367494343</v>
+        <v>-0.1044208476353511</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003987350131201328</v>
+        <v>0.004416163049280386</v>
       </c>
       <c r="M12" t="n">
-        <v>8.652670703078558</v>
+        <v>8.652304297048266</v>
       </c>
       <c r="N12" t="n">
-        <v>130.6888419953473</v>
+        <v>130.4363854109187</v>
       </c>
       <c r="O12" t="n">
-        <v>11.43192206041256</v>
+        <v>11.42087498447114</v>
       </c>
       <c r="P12" t="n">
-        <v>318.488247545308</v>
+        <v>318.5390464803855</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26358,28 +26433,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1115911428319523</v>
+        <v>-0.1144404470377548</v>
       </c>
       <c r="J13" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007992046709245026</v>
+        <v>0.008450742714807058</v>
       </c>
       <c r="M13" t="n">
-        <v>6.728471873979525</v>
+        <v>6.720836883613478</v>
       </c>
       <c r="N13" t="n">
-        <v>82.44714970766839</v>
+        <v>82.23002913967004</v>
       </c>
       <c r="O13" t="n">
-        <v>9.080041283368066</v>
+        <v>9.068077477595239</v>
       </c>
       <c r="P13" t="n">
-        <v>326.4473151675414</v>
+        <v>326.4760779624808</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26436,28 +26511,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01401619912912815</v>
+        <v>-0.01766836754031841</v>
       </c>
       <c r="J14" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001481212069665006</v>
+        <v>0.0002366024185928017</v>
       </c>
       <c r="M14" t="n">
-        <v>5.919111394558309</v>
+        <v>5.91969524999619</v>
       </c>
       <c r="N14" t="n">
-        <v>70.60500055209718</v>
+        <v>70.4668336570853</v>
       </c>
       <c r="O14" t="n">
-        <v>8.402678177349005</v>
+        <v>8.394452552554293</v>
       </c>
       <c r="P14" t="n">
-        <v>326.1983168130351</v>
+        <v>326.2350482789424</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26514,28 +26589,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08490202707904743</v>
+        <v>0.0852687218302168</v>
       </c>
       <c r="J15" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K15" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004167687292170763</v>
+        <v>0.004233615491527898</v>
       </c>
       <c r="M15" t="n">
-        <v>7.498544793290087</v>
+        <v>7.473289758489011</v>
       </c>
       <c r="N15" t="n">
-        <v>92.35753039668043</v>
+        <v>92.0275078508769</v>
       </c>
       <c r="O15" t="n">
-        <v>9.610282534695868</v>
+        <v>9.593096885306482</v>
       </c>
       <c r="P15" t="n">
-        <v>324.5827503321877</v>
+        <v>324.579090962877</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26586,28 +26661,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.01631480561796666</v>
+        <v>0.01587196087877402</v>
       </c>
       <c r="J16" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K16" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001123017188198183</v>
+        <v>0.0001070451779116022</v>
       </c>
       <c r="M16" t="n">
-        <v>8.58021431496562</v>
+        <v>8.552673328573027</v>
       </c>
       <c r="N16" t="n">
-        <v>124.7413380770146</v>
+        <v>124.3051018503936</v>
       </c>
       <c r="O16" t="n">
-        <v>11.16876618418591</v>
+        <v>11.14921978662155</v>
       </c>
       <c r="P16" t="n">
-        <v>335.7774603019446</v>
+        <v>335.7819262522304</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26664,28 +26739,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09538044988890872</v>
+        <v>0.09692249682097236</v>
       </c>
       <c r="J17" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K17" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002638833443934785</v>
+        <v>0.002743847902396679</v>
       </c>
       <c r="M17" t="n">
-        <v>10.25867510474462</v>
+        <v>10.22746674868763</v>
       </c>
       <c r="N17" t="n">
-        <v>181.8524886344374</v>
+        <v>181.2111895730681</v>
       </c>
       <c r="O17" t="n">
-        <v>13.48526932005577</v>
+        <v>13.46147055759764</v>
       </c>
       <c r="P17" t="n">
-        <v>331.8277904956249</v>
+        <v>331.812193591141</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26742,28 +26817,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1111621217000446</v>
+        <v>0.1039442454847586</v>
       </c>
       <c r="J18" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K18" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003602954759754695</v>
+        <v>0.003167813069719472</v>
       </c>
       <c r="M18" t="n">
-        <v>10.12037694495787</v>
+        <v>10.12328578082857</v>
       </c>
       <c r="N18" t="n">
-        <v>184.1279509802808</v>
+        <v>183.8488734167882</v>
       </c>
       <c r="O18" t="n">
-        <v>13.56937548232345</v>
+        <v>13.55908822217734</v>
       </c>
       <c r="P18" t="n">
-        <v>326.4131137725433</v>
+        <v>326.4848647975271</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26820,28 +26895,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.18532676875526</v>
+        <v>0.1904950096970723</v>
       </c>
       <c r="J19" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K19" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008620927803616452</v>
+        <v>0.009161507032568905</v>
       </c>
       <c r="M19" t="n">
-        <v>11.18365870970295</v>
+        <v>11.16203299873514</v>
       </c>
       <c r="N19" t="n">
-        <v>213.2529600357225</v>
+        <v>212.6640306530041</v>
       </c>
       <c r="O19" t="n">
-        <v>14.60318321585135</v>
+        <v>14.58300485678463</v>
       </c>
       <c r="P19" t="n">
-        <v>325.5392385043554</v>
+        <v>325.4877948049381</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26898,28 +26973,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0869522027364294</v>
+        <v>0.08481231886219365</v>
       </c>
       <c r="J20" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K20" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001857004928199513</v>
+        <v>0.001779476802540869</v>
       </c>
       <c r="M20" t="n">
-        <v>11.04147051173076</v>
+        <v>11.01322099112619</v>
       </c>
       <c r="N20" t="n">
-        <v>211.480193394915</v>
+        <v>210.7057976041185</v>
       </c>
       <c r="O20" t="n">
-        <v>14.54235859119541</v>
+        <v>14.51570864973938</v>
       </c>
       <c r="P20" t="n">
-        <v>328.6848393429754</v>
+        <v>328.7069356988113</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -26957,7 +27032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U346"/>
+  <dimension ref="A1:U347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58819,6 +58894,105 @@
         </is>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>-38.72479191418691,174.60882057304082</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>-38.72408355094197,174.60893886846094</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>-38.72338004920361,174.6089622268396</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>-38.72268072416839,174.60890400560265</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>-38.72129007347336,174.60863117263114</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-38.72059062303033,174.6086661780847</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>-38.71991415321015,174.6086338065103</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>-38.7192500185334,174.60892952163556</t>
+        </is>
+      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>-38.71785561770841,174.60911292954756</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>-38.717149388765954,174.60908386994845</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>-38.716451542779346,174.60916715742363</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>-38.715748731203604,174.60918291227898</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>-38.71504567418848,174.6091844428515</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>-38.714349490774254,174.6092782767501</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>-38.71366997358984,174.6095845422806</t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>-38.71295606064501,174.6094742859345</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>-38.71226901807444,174.60968956597378</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U347"/>
+  <dimension ref="A1:U348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21829,6 +21829,75 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>350.7058823529412</v>
+      </c>
+      <c r="C348" t="n">
+        <v>336.51</v>
+      </c>
+      <c r="D348" t="n">
+        <v>322.9460606060606</v>
+      </c>
+      <c r="E348" t="n">
+        <v>345.2977777777777</v>
+      </c>
+      <c r="F348" t="n">
+        <v>342.3066666666667</v>
+      </c>
+      <c r="G348" t="n">
+        <v>345.880487804878</v>
+      </c>
+      <c r="H348" t="n">
+        <v>327.0517391304347</v>
+      </c>
+      <c r="I348" t="n">
+        <v>319.2958823529411</v>
+      </c>
+      <c r="J348" t="n">
+        <v>313.2142857142857</v>
+      </c>
+      <c r="K348" t="n">
+        <v>317.8672131147541</v>
+      </c>
+      <c r="L348" t="n">
+        <v>319.4590909090909</v>
+      </c>
+      <c r="M348" t="n">
+        <v>326.5931034482759</v>
+      </c>
+      <c r="N348" t="n">
+        <v>331.7188888888889</v>
+      </c>
+      <c r="O348" t="n">
+        <v>337.9758823529411</v>
+      </c>
+      <c r="P348" t="n">
+        <v>347.5962068965517</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>337.6466666666667</v>
+      </c>
+      <c r="R348" t="n">
+        <v>329.6273684210527</v>
+      </c>
+      <c r="S348" t="n">
+        <v>332.8733333333333</v>
+      </c>
+      <c r="T348" t="n">
+        <v>330.3666666666667</v>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21840,7 +21909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25438,6 +25507,16 @@
       </c>
       <c r="B359" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>
@@ -25611,28 +25690,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.18087667007364</v>
+        <v>-0.1755718626364853</v>
       </c>
       <c r="J2" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K2" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01181232977685054</v>
+        <v>0.01119834621624149</v>
       </c>
       <c r="M2" t="n">
-        <v>9.088452711354792</v>
+        <v>9.079757489513842</v>
       </c>
       <c r="N2" t="n">
-        <v>144.7398419042937</v>
+        <v>144.4352964562324</v>
       </c>
       <c r="O2" t="n">
-        <v>12.03078725205852</v>
+        <v>12.01812366620648</v>
       </c>
       <c r="P2" t="n">
-        <v>347.5886677064193</v>
+        <v>347.5343471421731</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25683,28 +25762,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2602555548195739</v>
+        <v>-0.2553452876432083</v>
       </c>
       <c r="J3" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K3" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0278184256812275</v>
+        <v>0.02695865119344054</v>
       </c>
       <c r="M3" t="n">
-        <v>8.375465936094894</v>
+        <v>8.368204295119634</v>
       </c>
       <c r="N3" t="n">
-        <v>126.4501732814475</v>
+        <v>126.175111262138</v>
       </c>
       <c r="O3" t="n">
-        <v>11.24500659321494</v>
+        <v>11.23276952768719</v>
       </c>
       <c r="P3" t="n">
-        <v>336.0907555330776</v>
+        <v>336.0412097388289</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25761,28 +25840,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01578595139796494</v>
+        <v>-0.0155468603896557</v>
       </c>
       <c r="J4" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000114624903213123</v>
+        <v>0.0001120107156616923</v>
       </c>
       <c r="M4" t="n">
-        <v>8.266423068525548</v>
+        <v>8.236808845002482</v>
       </c>
       <c r="N4" t="n">
-        <v>115.5298695794249</v>
+        <v>115.099195570544</v>
       </c>
       <c r="O4" t="n">
-        <v>10.74848219886998</v>
+        <v>10.72842931516743</v>
       </c>
       <c r="P4" t="n">
-        <v>323.018233667461</v>
+        <v>323.0158057330705</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25839,28 +25918,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05129726826152103</v>
+        <v>-0.03736959104346795</v>
       </c>
       <c r="J5" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K5" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001343673443165772</v>
+        <v>0.0007096807636768343</v>
       </c>
       <c r="M5" t="n">
-        <v>7.749168799784157</v>
+        <v>7.787671987674454</v>
       </c>
       <c r="N5" t="n">
-        <v>104.4184640978324</v>
+        <v>105.3845657113278</v>
       </c>
       <c r="O5" t="n">
-        <v>10.21853532057469</v>
+        <v>10.26569850089743</v>
       </c>
       <c r="P5" t="n">
-        <v>327.5698540626742</v>
+        <v>327.4289267492134</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25917,28 +25996,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2426299364324573</v>
+        <v>-0.2301077063481694</v>
       </c>
       <c r="J6" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K6" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01658446886222797</v>
+        <v>0.01496173187393168</v>
       </c>
       <c r="M6" t="n">
-        <v>10.36474126337595</v>
+        <v>10.38561812372263</v>
       </c>
       <c r="N6" t="n">
-        <v>188.8710952693309</v>
+        <v>189.3279293990061</v>
       </c>
       <c r="O6" t="n">
-        <v>13.74303806548359</v>
+        <v>13.75964859286043</v>
       </c>
       <c r="P6" t="n">
-        <v>330.6918496603775</v>
+        <v>330.5671271238065</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25989,28 +26068,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.09259413113912278</v>
+        <v>-0.07848993870559014</v>
       </c>
       <c r="J7" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002507031281031025</v>
+        <v>0.001800617620866696</v>
       </c>
       <c r="M7" t="n">
-        <v>9.403259331284854</v>
+        <v>9.432562917566129</v>
       </c>
       <c r="N7" t="n">
-        <v>183.0067139855359</v>
+        <v>183.8618927823737</v>
       </c>
       <c r="O7" t="n">
-        <v>13.52799741223866</v>
+        <v>13.55956831106262</v>
       </c>
       <c r="P7" t="n">
-        <v>327.5898287922797</v>
+        <v>327.4473060497941</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26061,28 +26140,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.07635285888524457</v>
+        <v>-0.06759479764026187</v>
       </c>
       <c r="J8" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K8" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001302832718211189</v>
+        <v>0.001026268936007102</v>
       </c>
       <c r="M8" t="n">
-        <v>11.43395007079249</v>
+        <v>11.43707997537311</v>
       </c>
       <c r="N8" t="n">
-        <v>234.6622889826443</v>
+        <v>234.360639162736</v>
       </c>
       <c r="O8" t="n">
-        <v>15.31869083775256</v>
+        <v>15.30884186222903</v>
       </c>
       <c r="P8" t="n">
-        <v>316.5874238476318</v>
+        <v>316.4971631287962</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26133,28 +26212,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2241720881751371</v>
+        <v>-0.2201468074161361</v>
       </c>
       <c r="J9" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K9" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01280852244904407</v>
+        <v>0.01243703763641857</v>
       </c>
       <c r="M9" t="n">
-        <v>10.29220193191067</v>
+        <v>10.27471459782072</v>
       </c>
       <c r="N9" t="n">
-        <v>200.2994916712625</v>
+        <v>199.7084345316987</v>
       </c>
       <c r="O9" t="n">
-        <v>14.15272029227111</v>
+        <v>14.13182346803478</v>
       </c>
       <c r="P9" t="n">
-        <v>319.2114298200562</v>
+        <v>319.1696256186403</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26205,28 +26284,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.01289977451979767</v>
+        <v>-0.0154483945790228</v>
       </c>
       <c r="J10" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K10" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L10" t="n">
-        <v>3.768778144741525e-05</v>
+        <v>5.441510960635387e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>11.89900648448136</v>
+        <v>11.87450629431562</v>
       </c>
       <c r="N10" t="n">
-        <v>235.0505933160381</v>
+        <v>234.2926540261057</v>
       </c>
       <c r="O10" t="n">
-        <v>15.3313597999668</v>
+        <v>15.30662124788177</v>
       </c>
       <c r="P10" t="n">
-        <v>317.3712875153512</v>
+        <v>317.397059614615</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26277,28 +26356,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1846612277305482</v>
+        <v>-0.1856170056253724</v>
       </c>
       <c r="J11" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K11" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01288667890505235</v>
+        <v>0.01311082546913611</v>
       </c>
       <c r="M11" t="n">
-        <v>8.282208504941639</v>
+        <v>8.258073754166601</v>
       </c>
       <c r="N11" t="n">
-        <v>135.6981233744668</v>
+        <v>135.2183461747202</v>
       </c>
       <c r="O11" t="n">
-        <v>11.64895374591499</v>
+        <v>11.62834236573383</v>
       </c>
       <c r="P11" t="n">
-        <v>323.9633005104633</v>
+        <v>323.9731619330882</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26355,28 +26434,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1044208476353511</v>
+        <v>-0.1020776420693831</v>
       </c>
       <c r="J12" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K12" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004416163049280386</v>
+        <v>0.004247408052883817</v>
       </c>
       <c r="M12" t="n">
-        <v>8.652304297048266</v>
+        <v>8.63326961526343</v>
       </c>
       <c r="N12" t="n">
-        <v>130.4363854109187</v>
+        <v>130.0307482228449</v>
       </c>
       <c r="O12" t="n">
-        <v>11.42087498447114</v>
+        <v>11.40310257003965</v>
       </c>
       <c r="P12" t="n">
-        <v>318.5390464803855</v>
+        <v>318.5149687759159</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26433,28 +26512,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1144404470377548</v>
+        <v>-0.1124582031362619</v>
       </c>
       <c r="J13" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K13" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008450742714807058</v>
+        <v>0.008214118288735528</v>
       </c>
       <c r="M13" t="n">
-        <v>6.720836883613478</v>
+        <v>6.707938351911713</v>
       </c>
       <c r="N13" t="n">
-        <v>82.23002913967004</v>
+        <v>81.98080436893557</v>
       </c>
       <c r="O13" t="n">
-        <v>9.068077477595239</v>
+        <v>9.054325174685056</v>
       </c>
       <c r="P13" t="n">
-        <v>326.4760779624808</v>
+        <v>326.4559563023644</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26511,28 +26590,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01766836754031841</v>
+        <v>-0.0137546128119245</v>
       </c>
       <c r="J14" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K14" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002366024185928017</v>
+        <v>0.0001441450817680767</v>
       </c>
       <c r="M14" t="n">
-        <v>5.91969524999619</v>
+        <v>5.917530289277369</v>
       </c>
       <c r="N14" t="n">
-        <v>70.4668336570853</v>
+        <v>70.34497103451245</v>
       </c>
       <c r="O14" t="n">
-        <v>8.394452552554293</v>
+        <v>8.387190890549258</v>
       </c>
       <c r="P14" t="n">
-        <v>326.2350482789424</v>
+        <v>326.195470078913</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26589,28 +26668,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0852687218302168</v>
+        <v>0.09297782678078947</v>
       </c>
       <c r="J15" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K15" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004233615491527898</v>
+        <v>0.005041587320323115</v>
       </c>
       <c r="M15" t="n">
-        <v>7.473289758489011</v>
+        <v>7.480201809117765</v>
       </c>
       <c r="N15" t="n">
-        <v>92.0275078508769</v>
+        <v>92.14295923902586</v>
       </c>
       <c r="O15" t="n">
-        <v>9.593096885306482</v>
+        <v>9.599112419334709</v>
       </c>
       <c r="P15" t="n">
-        <v>324.579090962877</v>
+        <v>324.5017376077306</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26661,28 +26740,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.01587196087877402</v>
+        <v>0.02368088530907839</v>
       </c>
       <c r="J16" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K16" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001070451779116022</v>
+        <v>0.0002390984359643689</v>
       </c>
       <c r="M16" t="n">
-        <v>8.552673328573027</v>
+        <v>8.557106312635153</v>
       </c>
       <c r="N16" t="n">
-        <v>124.3051018503936</v>
+        <v>124.3206516443884</v>
       </c>
       <c r="O16" t="n">
-        <v>11.14921978662155</v>
+        <v>11.14991711379006</v>
       </c>
       <c r="P16" t="n">
-        <v>335.7819262522304</v>
+        <v>335.7027549103326</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26739,28 +26818,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09692249682097236</v>
+        <v>0.09925481137858404</v>
       </c>
       <c r="J17" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K17" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002743847902396679</v>
+        <v>0.002897196012548009</v>
       </c>
       <c r="M17" t="n">
-        <v>10.22746674868763</v>
+        <v>10.19942409887196</v>
       </c>
       <c r="N17" t="n">
-        <v>181.2111895730681</v>
+        <v>180.597093090337</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46147055759764</v>
+        <v>13.43864178741055</v>
       </c>
       <c r="P17" t="n">
-        <v>331.812193591141</v>
+        <v>331.7884746198888</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26817,28 +26896,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1039442454847586</v>
+        <v>0.1042762476250308</v>
       </c>
       <c r="J18" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K18" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003167813069719472</v>
+        <v>0.003211224774672949</v>
       </c>
       <c r="M18" t="n">
-        <v>10.12328578082857</v>
+        <v>10.08832638003553</v>
       </c>
       <c r="N18" t="n">
-        <v>183.8488734167882</v>
+        <v>183.1859777138429</v>
       </c>
       <c r="O18" t="n">
-        <v>13.55908822217734</v>
+        <v>13.53462144700925</v>
       </c>
       <c r="P18" t="n">
-        <v>326.4848647975271</v>
+        <v>326.4815462988672</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26895,28 +26974,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1904950096970723</v>
+        <v>0.1922512285887142</v>
       </c>
       <c r="J19" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K19" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009161507032568905</v>
+        <v>0.009396628270895602</v>
       </c>
       <c r="M19" t="n">
-        <v>11.16203299873514</v>
+        <v>11.12755984647194</v>
       </c>
       <c r="N19" t="n">
-        <v>212.6640306530041</v>
+        <v>211.9049740633395</v>
       </c>
       <c r="O19" t="n">
-        <v>14.58300485678463</v>
+        <v>14.55695620874568</v>
       </c>
       <c r="P19" t="n">
-        <v>325.4877948049381</v>
+        <v>325.4702166126474</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -26973,28 +27052,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08481231886219365</v>
+        <v>0.08443936476983845</v>
       </c>
       <c r="J20" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K20" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001779476802540869</v>
+        <v>0.001776814387330794</v>
       </c>
       <c r="M20" t="n">
-        <v>11.01322099112619</v>
+        <v>10.97373430735141</v>
       </c>
       <c r="N20" t="n">
-        <v>210.7057976041185</v>
+        <v>209.9056271217555</v>
       </c>
       <c r="O20" t="n">
-        <v>14.51570864973938</v>
+        <v>14.48812020662982</v>
       </c>
       <c r="P20" t="n">
-        <v>328.7069356988113</v>
+        <v>328.71080818219</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27032,7 +27111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U347"/>
+  <dimension ref="A1:U348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58993,6 +59072,113 @@
         </is>
       </c>
     </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>-38.724800602762315,174.60865113675314</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>-38.72409243181859,174.60876568710557</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>-38.72338462585343,174.6088729817861</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>-38.72269795001372,174.60856809307558</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>-38.72199635271018,174.6085540495098</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>-38.7212986119828,174.60846466531297</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-38.72059191763283,174.60863258204122</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>-38.71991582384241,174.60870227545846</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>-38.719245230941475,174.60886541026554</t>
+        </is>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>-38.71854435536076,174.6089078548874</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>-38.71784608998435,174.6089853441606</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>-38.717143079687816,174.6089993867491</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>-38.716441779503036,174.6090364211364</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>-38.7157395578674,174.60906049762986</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>-38.7150347997372,174.60904657660924</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>-38.71434838605132,174.60926489634832</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>-38.713659792257005,174.60946122464716</t>
+        </is>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>-38.7129605550182,174.6095287213895</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>-38.71226674259001,174.6096620054286</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U348"/>
+  <dimension ref="A1:U351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21898,6 +21898,211 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>362.7788235294118</v>
+      </c>
+      <c r="C349" t="n">
+        <v>355.81</v>
+      </c>
+      <c r="D349" t="n">
+        <v>312.5039393939394</v>
+      </c>
+      <c r="E349" t="n">
+        <v>357.4755555555556</v>
+      </c>
+      <c r="F349" t="n">
+        <v>344.9633333333333</v>
+      </c>
+      <c r="G349" t="n">
+        <v>352.0680487804878</v>
+      </c>
+      <c r="H349" t="n">
+        <v>338.4769565217391</v>
+      </c>
+      <c r="I349" t="n">
+        <v>332.1088235294118</v>
+      </c>
+      <c r="J349" t="n">
+        <v>329.0071428571428</v>
+      </c>
+      <c r="K349" t="n">
+        <v>334.3045901639344</v>
+      </c>
+      <c r="L349" t="n">
+        <v>337.9509090909091</v>
+      </c>
+      <c r="M349" t="n">
+        <v>326.8886206896552</v>
+      </c>
+      <c r="N349" t="n">
+        <v>326.8177777777778</v>
+      </c>
+      <c r="O349" t="n">
+        <v>329.6188235294118</v>
+      </c>
+      <c r="P349" t="n">
+        <v>326.3272413793104</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>342.7733333333333</v>
+      </c>
+      <c r="R349" t="n">
+        <v>325.66</v>
+      </c>
+      <c r="S349" t="n">
+        <v>333.3466666666667</v>
+      </c>
+      <c r="T349" t="n">
+        <v>333.8233333333333</v>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>353.9288235294118</v>
+      </c>
+      <c r="C350" t="n">
+        <v>337.84</v>
+      </c>
+      <c r="D350" t="n">
+        <v>324.7878787878788</v>
+      </c>
+      <c r="E350" t="n">
+        <v>346.8411111111111</v>
+      </c>
+      <c r="F350" t="n">
+        <v>346.4166666666667</v>
+      </c>
+      <c r="G350" t="n">
+        <v>345.8895121951219</v>
+      </c>
+      <c r="H350" t="n">
+        <v>320.1330434782609</v>
+      </c>
+      <c r="I350" t="n">
+        <v>319.8188235294118</v>
+      </c>
+      <c r="J350" t="n">
+        <v>314.3157142857143</v>
+      </c>
+      <c r="K350" t="n">
+        <v>320.4522950819672</v>
+      </c>
+      <c r="L350" t="n">
+        <v>323.3418181818182</v>
+      </c>
+      <c r="M350" t="n">
+        <v>329.94</v>
+      </c>
+      <c r="N350" t="n">
+        <v>326.2455555555555</v>
+      </c>
+      <c r="O350" t="n">
+        <v>337.9788235294118</v>
+      </c>
+      <c r="P350" t="n">
+        <v>349.87</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>334.2766666666667</v>
+      </c>
+      <c r="R350" t="n">
+        <v>330.3531578947368</v>
+      </c>
+      <c r="S350" t="n">
+        <v>330.6133333333333</v>
+      </c>
+      <c r="T350" t="n">
+        <v>331.2266666666667</v>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>345.3564705882353</v>
+      </c>
+      <c r="C351" t="n">
+        <v>330.29</v>
+      </c>
+      <c r="D351" t="n">
+        <v>323.6272727272727</v>
+      </c>
+      <c r="E351" t="n">
+        <v>332.0166666666667</v>
+      </c>
+      <c r="F351" t="n">
+        <v>330.49</v>
+      </c>
+      <c r="G351" t="n">
+        <v>333.5246341463415</v>
+      </c>
+      <c r="H351" t="n">
+        <v>313.3239130434782</v>
+      </c>
+      <c r="I351" t="n">
+        <v>328.8464705882353</v>
+      </c>
+      <c r="J351" t="n">
+        <v>327.8571428571428</v>
+      </c>
+      <c r="K351" t="n">
+        <v>329.912131147541</v>
+      </c>
+      <c r="L351" t="n">
+        <v>315.6009090909091</v>
+      </c>
+      <c r="M351" t="n">
+        <v>330.8893103448275</v>
+      </c>
+      <c r="N351" t="n">
+        <v>323.6033333333333</v>
+      </c>
+      <c r="O351" t="n">
+        <v>332.2764705882353</v>
+      </c>
+      <c r="P351" t="n">
+        <v>341.0586206896552</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>328.73</v>
+      </c>
+      <c r="R351" t="n">
+        <v>329.7505263157895</v>
+      </c>
+      <c r="S351" t="inlineStr"/>
+      <c r="T351" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21909,7 +22114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25517,6 +25722,36 @@
       </c>
       <c r="B360" t="n">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -25690,28 +25925,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1755718626364853</v>
+        <v>-0.1536236752903278</v>
       </c>
       <c r="J2" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01119834621624149</v>
+        <v>0.008666960159744774</v>
       </c>
       <c r="M2" t="n">
-        <v>9.079757489513842</v>
+        <v>9.082358269143104</v>
       </c>
       <c r="N2" t="n">
-        <v>144.4352964562324</v>
+        <v>144.6819775560156</v>
       </c>
       <c r="O2" t="n">
-        <v>12.01812366620648</v>
+        <v>12.02838216702544</v>
       </c>
       <c r="P2" t="n">
-        <v>347.5343471421731</v>
+        <v>347.3092270993555</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25762,28 +25997,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2553452876432083</v>
+        <v>-0.2314727627097203</v>
       </c>
       <c r="J3" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02695865119344054</v>
+        <v>0.02226497689888063</v>
       </c>
       <c r="M3" t="n">
-        <v>8.368204295119634</v>
+        <v>8.390088004189218</v>
       </c>
       <c r="N3" t="n">
-        <v>126.175111262138</v>
+        <v>127.492060678503</v>
       </c>
       <c r="O3" t="n">
-        <v>11.23276952768719</v>
+        <v>11.29123822609828</v>
       </c>
       <c r="P3" t="n">
-        <v>336.0412097388289</v>
+        <v>335.7999992058506</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25840,28 +26075,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0155468603896557</v>
+        <v>-0.02037279799419751</v>
       </c>
       <c r="J4" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001120107156616923</v>
+        <v>0.000195907299838205</v>
       </c>
       <c r="M4" t="n">
-        <v>8.236808845002482</v>
+        <v>8.195154912849723</v>
       </c>
       <c r="N4" t="n">
-        <v>115.099195570544</v>
+        <v>114.2216919346425</v>
       </c>
       <c r="O4" t="n">
-        <v>10.72842931516743</v>
+        <v>10.68745488573601</v>
       </c>
       <c r="P4" t="n">
-        <v>323.0158057330705</v>
+        <v>323.0648219712896</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25918,28 +26153,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03736959104346795</v>
+        <v>0.00302714345457282</v>
       </c>
       <c r="J5" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007096807636768343</v>
+        <v>4.540723483770215e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>7.787671987674454</v>
+        <v>7.897656454582545</v>
       </c>
       <c r="N5" t="n">
-        <v>105.3845657113278</v>
+        <v>109.3516433571076</v>
       </c>
       <c r="O5" t="n">
-        <v>10.26569850089743</v>
+        <v>10.4571336109427</v>
       </c>
       <c r="P5" t="n">
-        <v>327.4289267492134</v>
+        <v>327.0194487028401</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25996,28 +26231,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2301077063481694</v>
+        <v>-0.1974336470199152</v>
       </c>
       <c r="J6" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01496173187393168</v>
+        <v>0.0111105480205056</v>
       </c>
       <c r="M6" t="n">
-        <v>10.38561812372263</v>
+        <v>10.42810858945234</v>
       </c>
       <c r="N6" t="n">
-        <v>189.3279293990061</v>
+        <v>190.5039178908055</v>
       </c>
       <c r="O6" t="n">
-        <v>13.75964859286043</v>
+        <v>13.80231567132144</v>
       </c>
       <c r="P6" t="n">
-        <v>330.5671271238065</v>
+        <v>330.2410558574902</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26068,28 +26303,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.07848993870559014</v>
+        <v>-0.04184901831688017</v>
       </c>
       <c r="J7" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001800617620866696</v>
+        <v>0.000511775410049764</v>
       </c>
       <c r="M7" t="n">
-        <v>9.432562917566129</v>
+        <v>9.495292937139938</v>
       </c>
       <c r="N7" t="n">
-        <v>183.8618927823737</v>
+        <v>186.0187185094281</v>
       </c>
       <c r="O7" t="n">
-        <v>13.55956831106262</v>
+        <v>13.63886793357235</v>
       </c>
       <c r="P7" t="n">
-        <v>327.4473060497941</v>
+        <v>327.0763204750459</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26140,28 +26375,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.06759479764026187</v>
+        <v>-0.04867312963109197</v>
       </c>
       <c r="J8" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001026268936007102</v>
+        <v>0.0005388088014850467</v>
       </c>
       <c r="M8" t="n">
-        <v>11.43707997537311</v>
+        <v>11.42148848536051</v>
       </c>
       <c r="N8" t="n">
-        <v>234.360639162736</v>
+        <v>233.9320341675803</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30884186222903</v>
+        <v>15.29483684671335</v>
       </c>
       <c r="P8" t="n">
-        <v>316.4971631287962</v>
+        <v>316.301943543782</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26212,28 +26447,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.2201468074161361</v>
+        <v>-0.193092129420858</v>
       </c>
       <c r="J9" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01243703763641857</v>
+        <v>0.009691473858998045</v>
       </c>
       <c r="M9" t="n">
-        <v>10.27471459782072</v>
+        <v>10.2937673967802</v>
       </c>
       <c r="N9" t="n">
-        <v>199.7084345316987</v>
+        <v>199.7246600787782</v>
       </c>
       <c r="O9" t="n">
-        <v>14.13182346803478</v>
+        <v>14.13239753469942</v>
       </c>
       <c r="P9" t="n">
-        <v>319.1696256186403</v>
+        <v>318.8879626504743</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26284,28 +26519,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.0154483945790228</v>
+        <v>-0.002346395417939157</v>
       </c>
       <c r="J10" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L10" t="n">
-        <v>5.441510960635387e-05</v>
+        <v>1.276389579363268e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>11.87450629431562</v>
+        <v>11.82313279271051</v>
       </c>
       <c r="N10" t="n">
-        <v>234.2926540261057</v>
+        <v>232.8037221520072</v>
       </c>
       <c r="O10" t="n">
-        <v>15.30662124788177</v>
+        <v>15.25790687322502</v>
       </c>
       <c r="P10" t="n">
-        <v>317.397059614615</v>
+        <v>317.2642163138889</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26356,28 +26591,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.1856170056253724</v>
+        <v>-0.167169442600603</v>
       </c>
       <c r="J11" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01311082546913611</v>
+        <v>0.0107913258672051</v>
       </c>
       <c r="M11" t="n">
-        <v>8.258073754166601</v>
+        <v>8.251340687129272</v>
       </c>
       <c r="N11" t="n">
-        <v>135.2183461747202</v>
+        <v>134.9728143284173</v>
       </c>
       <c r="O11" t="n">
-        <v>11.62834236573383</v>
+        <v>11.61778009468321</v>
       </c>
       <c r="P11" t="n">
-        <v>323.9731619330882</v>
+        <v>323.7823755472589</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26434,28 +26669,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1020776420693831</v>
+        <v>-0.08355182733208799</v>
       </c>
       <c r="J12" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004247408052883817</v>
+        <v>0.002865037752344368</v>
       </c>
       <c r="M12" t="n">
-        <v>8.63326961526343</v>
+        <v>8.633952962521064</v>
       </c>
       <c r="N12" t="n">
-        <v>130.0307482228449</v>
+        <v>130.5205724286137</v>
       </c>
       <c r="O12" t="n">
-        <v>11.40310257003965</v>
+        <v>11.42456005405082</v>
       </c>
       <c r="P12" t="n">
-        <v>318.5149687759159</v>
+        <v>318.3243522690096</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26512,28 +26747,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1124582031362619</v>
+        <v>-0.101664772349023</v>
       </c>
       <c r="J13" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008214118288735528</v>
+        <v>0.006827325057708666</v>
       </c>
       <c r="M13" t="n">
-        <v>6.707938351911713</v>
+        <v>6.694101170893614</v>
       </c>
       <c r="N13" t="n">
-        <v>81.98080436893557</v>
+        <v>81.49586521990091</v>
       </c>
       <c r="O13" t="n">
-        <v>9.054325174685056</v>
+        <v>9.027506035439739</v>
       </c>
       <c r="P13" t="n">
-        <v>326.4559563023644</v>
+        <v>326.3460696542178</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26590,28 +26825,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0137546128119245</v>
+        <v>-0.01431452072970735</v>
       </c>
       <c r="J14" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K14" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001441450817680767</v>
+        <v>0.0001592546205581025</v>
       </c>
       <c r="M14" t="n">
-        <v>5.917530289277369</v>
+        <v>5.869957451513988</v>
       </c>
       <c r="N14" t="n">
-        <v>70.34497103451245</v>
+        <v>69.65033232637747</v>
       </c>
       <c r="O14" t="n">
-        <v>8.387190890549258</v>
+        <v>8.345677463596198</v>
       </c>
       <c r="P14" t="n">
-        <v>326.195470078913</v>
+        <v>326.2011838941129</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26668,28 +26903,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09297782678078947</v>
+        <v>0.105835270169115</v>
       </c>
       <c r="J15" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005041587320323115</v>
+        <v>0.006621813342696736</v>
       </c>
       <c r="M15" t="n">
-        <v>7.480201809117765</v>
+        <v>7.457117114198005</v>
       </c>
       <c r="N15" t="n">
-        <v>92.14295923902586</v>
+        <v>91.71596985460815</v>
       </c>
       <c r="O15" t="n">
-        <v>9.599112419334709</v>
+        <v>9.576845506460264</v>
       </c>
       <c r="P15" t="n">
-        <v>324.5017376077306</v>
+        <v>324.3723868494399</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26740,28 +26975,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.02368088530907839</v>
+        <v>0.02925263930158174</v>
       </c>
       <c r="J16" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K16" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002390984359643689</v>
+        <v>0.0003693989891297988</v>
       </c>
       <c r="M16" t="n">
-        <v>8.557106312635153</v>
+        <v>8.561986523897463</v>
       </c>
       <c r="N16" t="n">
-        <v>124.3206516443884</v>
+        <v>124.0866207714973</v>
       </c>
       <c r="O16" t="n">
-        <v>11.14991711379006</v>
+        <v>11.13941743411644</v>
       </c>
       <c r="P16" t="n">
-        <v>335.7027549103326</v>
+        <v>335.6460032230218</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26818,28 +27053,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09925481137858404</v>
+        <v>0.1011007797589478</v>
       </c>
       <c r="J17" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002897196012548009</v>
+        <v>0.003063578838927938</v>
       </c>
       <c r="M17" t="n">
-        <v>10.19942409887196</v>
+        <v>10.13809838661069</v>
       </c>
       <c r="N17" t="n">
-        <v>180.597093090337</v>
+        <v>179.0286389169525</v>
       </c>
       <c r="O17" t="n">
-        <v>13.43864178741055</v>
+        <v>13.38015840403067</v>
       </c>
       <c r="P17" t="n">
-        <v>331.7884746198888</v>
+        <v>331.7698119359516</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -26896,28 +27131,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1042762476250308</v>
+        <v>0.1031275320041773</v>
       </c>
       <c r="J18" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003211224774672949</v>
+        <v>0.00320803523903912</v>
       </c>
       <c r="M18" t="n">
-        <v>10.08832638003553</v>
+        <v>9.999638923675199</v>
       </c>
       <c r="N18" t="n">
-        <v>183.1859777138429</v>
+        <v>181.27314400103</v>
       </c>
       <c r="O18" t="n">
-        <v>13.53462144700925</v>
+        <v>13.46377153701852</v>
       </c>
       <c r="P18" t="n">
-        <v>326.4815462988672</v>
+        <v>326.4930177915035</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -26974,28 +27209,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1922512285887142</v>
+        <v>0.1944203945319744</v>
       </c>
       <c r="J19" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K19" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009396628270895602</v>
+        <v>0.009744717646334999</v>
       </c>
       <c r="M19" t="n">
-        <v>11.12755984647194</v>
+        <v>11.05436235325772</v>
       </c>
       <c r="N19" t="n">
-        <v>211.9049740633395</v>
+        <v>210.3896554582834</v>
       </c>
       <c r="O19" t="n">
-        <v>14.55695620874568</v>
+        <v>14.50481490603322</v>
       </c>
       <c r="P19" t="n">
-        <v>325.4702166126474</v>
+        <v>325.4484798876805</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27052,28 +27287,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08443936476983845</v>
+        <v>0.09609935352633177</v>
       </c>
       <c r="J20" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K20" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001776814387330794</v>
+        <v>0.00234255280341078</v>
       </c>
       <c r="M20" t="n">
-        <v>10.97373430735141</v>
+        <v>10.8964785129301</v>
       </c>
       <c r="N20" t="n">
-        <v>209.9056271217555</v>
+        <v>208.2131881045323</v>
       </c>
       <c r="O20" t="n">
-        <v>14.48812020662982</v>
+        <v>14.42959417670962</v>
       </c>
       <c r="P20" t="n">
-        <v>328.71080818219</v>
+        <v>328.5892806804222</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -27111,7 +27346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U348"/>
+  <dimension ref="A1:U351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59179,6 +59414,323 @@
         </is>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:06:21+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>-38.72480770770117,174.60851257944606</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>-38.72410379002234,174.60854418933891</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>-38.72337848030058,174.60899282027168</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>-38.722705116539885,174.60842833667692</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>-38.72199791614743,174.60852356098295</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>-38.72130225326861,174.6083936561005</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-38.72059697470788,174.6085013442041</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>-38.719912230101954,174.60855499216734</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>-38.719231729009,174.60868460642868</t>
+        </is>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>-38.718530302379946,174.60871967413678</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>-38.71783028060165,174.6087736455253</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>-38.7171428270404,174.60899600363166</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>-38.71644596961754,174.60909252910727</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>-38.71574672689692,174.60915616542667</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>-38.71505399477758,174.60928993266555</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>-38.71434354539534,174.6092062665579</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>-38.71366353821555,174.60950659599857</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>-38.712960108099864,174.60952330833976</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>-38.71226347884779,174.60962247529935</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>-38.724802499482664,174.6086141480853</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>-38.72409321454761,174.60875042327257</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>-38.72338570981502,174.60885184424865</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>-38.72269885826243,174.6085503812492</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>-38.721998771424666,174.60850688218966</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>-38.721298617293556,174.60846456174795</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-38.72058885518087,174.60871205488544</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>-38.719915677172885,174.60869626430937</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>-38.71924428929614,174.60885280060666</t>
+        </is>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>-38.71854214528945,174.608878259975</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>-38.717842770520065,174.60894089378914</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>-38.71714021831005,174.60896107107024</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>-38.71644645882661,174.6090990799136</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>-38.71573955534432,174.6090604639606</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>-38.715032747630254,174.60902056024375</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>-38.714351568026885,174.60930343648093</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>-38.71365910697029,174.60945292442292</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>-38.71296268889233,174.60955456679665</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>-38.71226593058984,174.60965217054562</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:06:33+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>-38.72479745457541,174.6087125302404</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-38.72408877120991,174.60883707134184</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>-38.72338502676627,174.60886516388817</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>-38.72269013399474,174.60872051167152</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>-38.72198939855516,174.60868966031552</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>-38.721291340621654,174.6086064625865</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>-38.7205858411736,174.6087902691806</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>-38.71991314513589,174.6085924925399</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>-38.719232712198554,174.6086977721516</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>-38.71853405770126,174.6087699605134</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>-38.71784938844713,174.60902951353347</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>-38.71713940670947,174.60895020325043</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>-38.7164487177328,174.60912932810368</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>-38.71574444706625,174.60912574189382</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>-38.715040699901216,174.60912137859907</t>
+        </is>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>-38.714356805197205,174.60936686950487</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>-38.71365967597199,174.6094598161972</t>
+        </is>
+      </c>
+      <c r="S351" t="inlineStr"/>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>-38.71225381343398,174.60950540971803</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U351"/>
+  <dimension ref="A1:U352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22103,6 +22103,75 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>339.0141176470589</v>
+      </c>
+      <c r="C352" t="n">
+        <v>329.27</v>
+      </c>
+      <c r="D352" t="n">
+        <v>323.7878787878788</v>
+      </c>
+      <c r="E352" t="n">
+        <v>322.8777777777778</v>
+      </c>
+      <c r="F352" t="n">
+        <v>328.9766666666667</v>
+      </c>
+      <c r="G352" t="n">
+        <v>326.6509756097561</v>
+      </c>
+      <c r="H352" t="n">
+        <v>305.464347826087</v>
+      </c>
+      <c r="I352" t="n">
+        <v>318.2041176470589</v>
+      </c>
+      <c r="J352" t="n">
+        <v>323.9742857142857</v>
+      </c>
+      <c r="K352" t="n">
+        <v>329.5904918032787</v>
+      </c>
+      <c r="L352" t="n">
+        <v>322.1618181818182</v>
+      </c>
+      <c r="M352" t="n">
+        <v>331.7782758620689</v>
+      </c>
+      <c r="N352" t="n">
+        <v>325.8588888888889</v>
+      </c>
+      <c r="O352" t="n">
+        <v>331.0641176470588</v>
+      </c>
+      <c r="P352" t="n">
+        <v>340.2865517241379</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>334.0466666666667</v>
+      </c>
+      <c r="R352" t="n">
+        <v>325.3457894736842</v>
+      </c>
+      <c r="S352" t="n">
+        <v>326.8033333333333</v>
+      </c>
+      <c r="T352" t="n">
+        <v>324.1366666666667</v>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22114,7 +22183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B363"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25752,6 +25821,16 @@
       </c>
       <c r="B363" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -27346,7 +27425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U351"/>
+  <dimension ref="A1:U352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59731,6 +59810,113 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-38.72479372199019,174.60878531938747</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-38.72408817091302,174.6088487774376</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-38.72338512128747,174.6088633207005</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-38.72268475558502,174.6088253926782</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-38.721988507941184,174.60870702767735</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-38.721287295432035,174.60868534550957</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>-38.720582362134834,174.60888054947236</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>-38.719916130049164,174.60871482516907</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>-38.71923603182632,174.60874222486802</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>-38.718534332685124,174.60877364275106</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>-38.71784377934056,174.6089544027052</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>-38.71713864669899,174.60894002626569</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>-38.71644678939873,174.60910350647788</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>-38.71574548706968,174.6091396203578</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>-38.715041396689394,174.60913021248632</t>
+        </is>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>-38.714351785193884,174.6093060668165</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>-38.71366383488994,174.609510189352</t>
+        </is>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>-38.7129662862512,174.6095981380392</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>-38.71227262484551,174.6097332511564</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -26004,28 +26004,28 @@
         <v>0.103</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1536236752903278</v>
+        <v>-0.1565120412372742</v>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008666960159744774</v>
+        <v>0.009049952578738529</v>
       </c>
       <c r="M2" t="n">
-        <v>9.082358269143104</v>
+        <v>9.067573236853006</v>
       </c>
       <c r="N2" t="n">
-        <v>144.6819775560156</v>
+        <v>144.2380146210464</v>
       </c>
       <c r="O2" t="n">
-        <v>12.02838216702544</v>
+        <v>12.00991318124517</v>
       </c>
       <c r="P2" t="n">
-        <v>347.3092270993555</v>
+        <v>347.3390322647297</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26076,28 +26076,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>-0.2314727627097203</v>
+        <v>-0.231851886157903</v>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K3" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02226497689888063</v>
+        <v>0.02249027846972906</v>
       </c>
       <c r="M3" t="n">
-        <v>8.390088004189218</v>
+        <v>8.362597570546468</v>
       </c>
       <c r="N3" t="n">
-        <v>127.492060678503</v>
+        <v>127.0426658589085</v>
       </c>
       <c r="O3" t="n">
-        <v>11.29123822609828</v>
+        <v>11.27132050200457</v>
       </c>
       <c r="P3" t="n">
-        <v>335.7999992058506</v>
+        <v>335.8038538718685</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26154,28 +26154,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02037279799419751</v>
+        <v>-0.0195005697600579</v>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K4" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000195907299838205</v>
+        <v>0.0001807893928729154</v>
       </c>
       <c r="M4" t="n">
-        <v>8.195154912849723</v>
+        <v>8.169480573209402</v>
       </c>
       <c r="N4" t="n">
-        <v>114.2216919346425</v>
+        <v>113.8074255112283</v>
       </c>
       <c r="O4" t="n">
-        <v>10.68745488573601</v>
+        <v>10.66805631365097</v>
       </c>
       <c r="P4" t="n">
-        <v>323.0648219712896</v>
+        <v>323.0558966886416</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26232,28 +26232,28 @@
         <v>0.1031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00302714345457282</v>
+        <v>3.184373519554726e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K5" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L5" t="n">
-        <v>4.540723483770215e-06</v>
+        <v>5.058796714862979e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>7.897656454582545</v>
+        <v>7.884869022196856</v>
       </c>
       <c r="N5" t="n">
-        <v>109.3516433571076</v>
+        <v>109.0080379048264</v>
       </c>
       <c r="O5" t="n">
-        <v>10.4571336109427</v>
+        <v>10.44069144764016</v>
       </c>
       <c r="P5" t="n">
-        <v>327.0194487028401</v>
+        <v>327.0499900203084</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26310,28 +26310,28 @@
         <v>0.0707</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1974336470199152</v>
+        <v>-0.1948238373188877</v>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K6" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0111105480205056</v>
+        <v>0.01089640144561255</v>
       </c>
       <c r="M6" t="n">
-        <v>10.42810858945234</v>
+        <v>10.4033596738914</v>
       </c>
       <c r="N6" t="n">
-        <v>190.5039178908055</v>
+        <v>189.8729945186122</v>
       </c>
       <c r="O6" t="n">
-        <v>13.80231567132144</v>
+        <v>13.7794410089311</v>
       </c>
       <c r="P6" t="n">
-        <v>330.2410558574902</v>
+        <v>330.214862919059</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26382,28 +26382,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.04184901831688017</v>
+        <v>-0.04141484491856856</v>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000511775410049764</v>
+        <v>0.0005046754114195195</v>
       </c>
       <c r="M7" t="n">
-        <v>9.495292937139938</v>
+        <v>9.463789069099503</v>
       </c>
       <c r="N7" t="n">
-        <v>186.0187185094281</v>
+        <v>185.3652112090197</v>
       </c>
       <c r="O7" t="n">
-        <v>13.63886793357235</v>
+        <v>13.61488932048365</v>
       </c>
       <c r="P7" t="n">
-        <v>327.0763204750459</v>
+        <v>327.0718990961608</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26454,28 +26454,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.04867312963109197</v>
+        <v>-0.05524638885778774</v>
       </c>
       <c r="J8" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K8" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005388088014850467</v>
+        <v>0.0006979361534553696</v>
       </c>
       <c r="M8" t="n">
-        <v>11.42148848536051</v>
+        <v>11.4148832079585</v>
       </c>
       <c r="N8" t="n">
-        <v>233.9320341675803</v>
+        <v>233.413660130259</v>
       </c>
       <c r="O8" t="n">
-        <v>15.29483684671335</v>
+        <v>15.2778814018914</v>
       </c>
       <c r="P8" t="n">
-        <v>316.301943543782</v>
+        <v>316.3702108872286</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26526,28 +26526,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.193092129420858</v>
+        <v>-0.1902044305495757</v>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K9" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009691473858998045</v>
+        <v>0.009467517827903116</v>
       </c>
       <c r="M9" t="n">
-        <v>10.2937673967802</v>
+        <v>10.27130386885691</v>
       </c>
       <c r="N9" t="n">
-        <v>199.7246600787782</v>
+        <v>199.0901279351141</v>
       </c>
       <c r="O9" t="n">
-        <v>14.13239753469942</v>
+        <v>14.10993011800959</v>
       </c>
       <c r="P9" t="n">
-        <v>318.8879626504743</v>
+        <v>318.8577464333773</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26598,28 +26598,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.002346395417939157</v>
+        <v>0.002047016771234244</v>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K10" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L10" t="n">
-        <v>1.276389579363268e-06</v>
+        <v>9.77411123703753e-07</v>
       </c>
       <c r="M10" t="n">
-        <v>11.82313279271051</v>
+        <v>11.80010614805301</v>
       </c>
       <c r="N10" t="n">
-        <v>232.8037221520072</v>
+        <v>232.1683763393953</v>
       </c>
       <c r="O10" t="n">
-        <v>15.25790687322502</v>
+        <v>15.2370724333579</v>
       </c>
       <c r="P10" t="n">
-        <v>317.2642163138889</v>
+        <v>317.2194517989988</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26670,28 +26670,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-0.167169442600603</v>
+        <v>-0.1602709275342755</v>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K11" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0107913258672051</v>
+        <v>0.009970542469519672</v>
       </c>
       <c r="M11" t="n">
-        <v>8.251340687129272</v>
+        <v>8.252273703048655</v>
       </c>
       <c r="N11" t="n">
-        <v>134.9728143284173</v>
+        <v>134.8538065722327</v>
       </c>
       <c r="O11" t="n">
-        <v>11.61778009468321</v>
+        <v>11.61265717104542</v>
       </c>
       <c r="P11" t="n">
-        <v>323.7823755472589</v>
+        <v>323.7106647722622</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26748,28 +26748,28 @@
         <v>0.1216</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08355182733208799</v>
+        <v>-0.07974176414181822</v>
       </c>
       <c r="J12" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K12" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002865037752344368</v>
+        <v>0.002624775071384478</v>
       </c>
       <c r="M12" t="n">
-        <v>8.633952962521064</v>
+        <v>8.622460419654214</v>
       </c>
       <c r="N12" t="n">
-        <v>130.5205724286137</v>
+        <v>130.1975255474235</v>
       </c>
       <c r="O12" t="n">
-        <v>11.42456005405082</v>
+        <v>11.41041303141229</v>
       </c>
       <c r="P12" t="n">
-        <v>318.3243522690096</v>
+        <v>318.2848930651392</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26826,28 +26826,28 @@
         <v>0.1673</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.101664772349023</v>
+        <v>-0.09655889636160443</v>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K13" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006827325057708666</v>
+        <v>0.00618668283127588</v>
       </c>
       <c r="M13" t="n">
-        <v>6.694101170893614</v>
+        <v>6.697167637861364</v>
       </c>
       <c r="N13" t="n">
-        <v>81.49586521990091</v>
+        <v>81.4376730504525</v>
       </c>
       <c r="O13" t="n">
-        <v>9.027506035439739</v>
+        <v>9.02428241194016</v>
       </c>
       <c r="P13" t="n">
-        <v>326.3460696542178</v>
+        <v>326.2938361145511</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26904,28 +26904,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01431452072970735</v>
+        <v>-0.01429734632548157</v>
       </c>
       <c r="J14" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K14" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001592546205581025</v>
+        <v>0.000159938006027649</v>
       </c>
       <c r="M14" t="n">
-        <v>5.869957451513988</v>
+        <v>5.850205352639479</v>
       </c>
       <c r="N14" t="n">
-        <v>69.65033232637747</v>
+        <v>69.41502953882753</v>
       </c>
       <c r="O14" t="n">
-        <v>8.345677463596198</v>
+        <v>8.331568252065605</v>
       </c>
       <c r="P14" t="n">
-        <v>326.2011838941129</v>
+        <v>326.2010088835596</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26982,28 +26982,28 @@
         <v>0.0978</v>
       </c>
       <c r="I15" t="n">
-        <v>0.105835270169115</v>
+        <v>0.1084861132522044</v>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K15" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006621813342696736</v>
+        <v>0.006999749974253566</v>
       </c>
       <c r="M15" t="n">
-        <v>7.457117114198005</v>
+        <v>7.442358311264429</v>
       </c>
       <c r="N15" t="n">
-        <v>91.71596985460815</v>
+        <v>91.44775673619186</v>
       </c>
       <c r="O15" t="n">
-        <v>9.576845506460264</v>
+        <v>9.562832045800651</v>
       </c>
       <c r="P15" t="n">
-        <v>324.3723868494399</v>
+        <v>324.3455838745472</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27054,28 +27054,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.02925263930158174</v>
+        <v>0.03184173672393532</v>
       </c>
       <c r="J16" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K16" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003693989891297988</v>
+        <v>0.0004405283747512811</v>
       </c>
       <c r="M16" t="n">
-        <v>8.561986523897463</v>
+        <v>8.543801739933489</v>
       </c>
       <c r="N16" t="n">
-        <v>124.0866207714973</v>
+        <v>123.7102796446812</v>
       </c>
       <c r="O16" t="n">
-        <v>11.13941743411644</v>
+        <v>11.12251229015645</v>
       </c>
       <c r="P16" t="n">
-        <v>335.6460032230218</v>
+        <v>335.619556904263</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27132,28 +27132,28 @@
         <v>0.0711</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1011007797589478</v>
+        <v>0.1008776858611816</v>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K17" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003063578838927938</v>
+        <v>0.00307149032241083</v>
       </c>
       <c r="M17" t="n">
-        <v>10.13809838661069</v>
+        <v>10.10346757146208</v>
       </c>
       <c r="N17" t="n">
-        <v>179.0286389169525</v>
+        <v>178.3919085916777</v>
       </c>
       <c r="O17" t="n">
-        <v>13.38015840403067</v>
+        <v>13.35634338401337</v>
       </c>
       <c r="P17" t="n">
-        <v>331.7698119359516</v>
+        <v>331.7720981218216</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -27210,28 +27210,28 @@
         <v>0.1098</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1031275320041773</v>
+        <v>0.100561795279106</v>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K18" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00320803523903912</v>
+        <v>0.003071622054880874</v>
       </c>
       <c r="M18" t="n">
-        <v>9.999638923675199</v>
+        <v>9.978674261725871</v>
       </c>
       <c r="N18" t="n">
-        <v>181.27314400103</v>
+        <v>180.6790433234472</v>
       </c>
       <c r="O18" t="n">
-        <v>13.46377153701852</v>
+        <v>13.44169049351484</v>
       </c>
       <c r="P18" t="n">
-        <v>326.4930177915035</v>
+        <v>326.5188611967018</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -27288,28 +27288,28 @@
         <v>0.0867</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1944203945319744</v>
+        <v>0.1919006552423912</v>
       </c>
       <c r="J19" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K19" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009744717646334999</v>
+        <v>0.009562202424241106</v>
       </c>
       <c r="M19" t="n">
-        <v>11.05436235325772</v>
+        <v>11.03133266124774</v>
       </c>
       <c r="N19" t="n">
-        <v>210.3896554582834</v>
+        <v>209.6727137899337</v>
       </c>
       <c r="O19" t="n">
-        <v>14.50481490603322</v>
+        <v>14.48007989584083</v>
       </c>
       <c r="P19" t="n">
-        <v>325.4484798876805</v>
+        <v>325.4738958658313</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -27366,28 +27366,28 @@
         <v>0.0645</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09609935352633177</v>
+        <v>0.09120898230375937</v>
       </c>
       <c r="J20" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K20" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00234255280341078</v>
+        <v>0.002123910499876591</v>
       </c>
       <c r="M20" t="n">
-        <v>10.8964785129301</v>
+        <v>10.88776294311016</v>
       </c>
       <c r="N20" t="n">
-        <v>208.2131881045323</v>
+        <v>207.6112888566043</v>
       </c>
       <c r="O20" t="n">
-        <v>14.42959417670962</v>
+        <v>14.40872266568429</v>
       </c>
       <c r="P20" t="n">
-        <v>328.5892806804222</v>
+        <v>328.6404537847902</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">

--- a/data/nzd0272/nzd0272.xlsx
+++ b/data/nzd0272/nzd0272.xlsx
@@ -25995,13 +25995,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0699</v>
+        <v>0.0987</v>
       </c>
       <c r="H2" t="n">
-        <v>0.103</v>
+        <v>0.1331</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1564975909499549</v>
@@ -26072,9 +26072,15 @@
       <c r="E3" t="n">
         <v>0.9444380035096381</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I3" t="n">
         <v>-0.231851886157903</v>
       </c>
@@ -26145,10 +26151,10 @@
         <v>0.8888760070187597</v>
       </c>
       <c r="F4" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1373</v>
+        <v>0.1517</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
@@ -26223,13 +26229,13 @@
         <v>0.8333140105278811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0837</v>
+        <v>0.1086</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1031</v>
+        <v>0.1545</v>
       </c>
       <c r="I5" t="n">
         <v>2.938240884910379e-05</v>
@@ -26301,13 +26307,13 @@
         <v>0.7777520140368912</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0549</v>
+        <v>0.0668</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0707</v>
+        <v>0.137</v>
       </c>
       <c r="I6" t="n">
         <v>-0.194830327096577</v>
@@ -26378,9 +26384,15 @@
       <c r="E7" t="n">
         <v>0.7221900175460126</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1055</v>
+      </c>
       <c r="I7" t="n">
         <v>-0.04141080242672037</v>
       </c>
@@ -26450,9 +26462,15 @@
       <c r="E8" t="n">
         <v>0.6666280210551342</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0635</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.05522051100044605</v>
       </c>
@@ -26522,9 +26540,15 @@
       <c r="E9" t="n">
         <v>0.6111817931606169</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0581</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.07049999999999999</v>
+      </c>
       <c r="I9" t="n">
         <v>-0.1901489373116368</v>
       </c>
@@ -26594,9 +26618,15 @@
       <c r="E10" t="n">
         <v>0.5556197966695864</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09470000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I10" t="n">
         <v>0.002060384726085871</v>
       </c>
@@ -26666,9 +26696,15 @@
       <c r="E11" t="n">
         <v>0.5000578001785557</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0799</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0946</v>
+      </c>
       <c r="I11" t="n">
         <v>-0.1602919150502487</v>
       </c>
@@ -26739,13 +26775,13 @@
         <v>0.4444958036877456</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1216</v>
+        <v>0.1381</v>
       </c>
       <c r="I12" t="n">
         <v>-0.07974351818535183</v>
@@ -26817,13 +26853,13 @@
         <v>0.3889338071972295</v>
       </c>
       <c r="F13" t="n">
-        <v>0.145</v>
+        <v>0.17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1272</v>
+        <v>0.1535</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1673</v>
+        <v>0.1954</v>
       </c>
       <c r="I13" t="n">
         <v>-0.09652588040227646</v>
@@ -26895,10 +26931,10 @@
         <v>0.3333718107061988</v>
       </c>
       <c r="F14" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1534</v>
+        <v>0.1841</v>
       </c>
       <c r="H14" t="n">
         <v>0.2</v>
@@ -26973,13 +27009,13 @@
         <v>0.2778098142153886</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.1374</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0978</v>
+        <v>0.1843</v>
       </c>
       <c r="I15" t="n">
         <v>0.1085056011508919</v>
@@ -27050,9 +27086,15 @@
       <c r="E16" t="n">
         <v>0.2222479859624353</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1146</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1667</v>
+      </c>
       <c r="I16" t="n">
         <v>0.03183167873933893</v>
       </c>
@@ -27123,13 +27165,13 @@
         <v>0.1666859894718265</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0545</v>
+        <v>0.0921</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0711</v>
+        <v>0.1224</v>
       </c>
       <c r="I17" t="n">
         <v>0.100865771368423</v>
@@ -27201,13 +27243,13 @@
         <v>0.1111239929812177</v>
       </c>
       <c r="F18" t="n">
-        <v>0.095</v>
+        <v>0.115</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0822</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1098</v>
+        <v>0.1339</v>
       </c>
       <c r="I18" t="n">
         <v>0.1005693421752115</v>
@@ -27279,13 +27321,13 @@
         <v>0.05556199649060883</v>
       </c>
       <c r="F19" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06759999999999999</v>
+        <v>0.0832</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0867</v>
+        <v>0.1111</v>
       </c>
       <c r="I19" t="n">
         <v>0.1919066769265226</v>
@@ -27357,13 +27399,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0535</v>
+        <v>0.0592</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0645</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>0.09121387789746492</v>
